--- a/tests/Feature/config/salary-otp_realistic.xlsx
+++ b/tests/Feature/config/salary-otp_realistic.xlsx
@@ -309,64 +309,64 @@
 </t>
   </si>
   <si>
-    <t>OTP fra 2038, 1|20 av formuentransfered -300755 + 66166 (tax) = 234589 to income.2038.income.amount  transfer 300755 (Division: 6015094/20=300755 rewritten rule: 1|19) to income.2038.income.amount  Asset rule:1|20 Division: 6015094/20=300755 rewritten rule: 1|19</t>
+    <t>OTP fra 2038, 1|20 av formuentransfered 300755 with 102083 (tax) to income.2038.income.amount  transfer 300755 (Division: 6015094/20=300755 rewritten rule: 1|19) to income.2038.income.amount  Asset rule:1|20 Division: 6015094/20=300755 rewritten rule: 1|19</t>
   </si>
   <si>
-    <t>transfered -321808 + 70798 (tax) = 251010 to income.2039.income.amount  transfer 321808 (Division: 6114343/19=321808 rewritten rule: 1|18) to income.2039.income.amount  Asset rule:1|19 Division: 6114343/19=321808 rewritten rule: 1|18</t>
+    <t>transfered 321808 with 109957 (tax) to income.2039.income.amount  transfer 321808 (Division: 6114343/19=321808 rewritten rule: 1|18) to income.2039.income.amount  Asset rule:1|19 Division: 6114343/19=321808 rewritten rule: 1|18</t>
   </si>
   <si>
-    <t>transfered -344334 + 75753 (tax) = 268581 to income.2040.income.amount  transfer 344334 (Division: 6198012/18=344334 rewritten rule: 1|17) to income.2040.income.amount  Asset rule:1|18 Division: 6198012/18=344334 rewritten rule: 1|17</t>
+    <t>transfered 344334 with 118381 (tax) to income.2040.income.amount  transfer 344334 (Division: 6198012/18=344334 rewritten rule: 1|17) to income.2040.income.amount  Asset rule:1|18 Division: 6198012/18=344334 rewritten rule: 1|17</t>
   </si>
   <si>
-    <t>transfered -368437 + 81056 (tax) = 287381 to income.2041.income.amount  transfer 368437 (Division: 6263435/17=368437 rewritten rule: 1|16) to income.2041.income.amount  Asset rule:1|17 Division: 6263435/17=368437 rewritten rule: 1|16</t>
+    <t>transfered 368437 with 127396 (tax) to income.2041.income.amount  transfer 368437 (Division: 6263435/17=368437 rewritten rule: 1|16) to income.2041.income.amount  Asset rule:1|17 Division: 6263435/17=368437 rewritten rule: 1|16</t>
   </si>
   <si>
-    <t>transfered -394228 + 86730 (tax) = 307498 to income.2042.income.amount  transfer 394228 (Division: 6307648/16=394228 rewritten rule: 1|15) to income.2042.income.amount  Asset rule:1|16 Division: 6307648/16=394228 rewritten rule: 1|15</t>
+    <t>transfered 394228 with 137042 (tax) to income.2042.income.amount  transfer 394228 (Division: 6307648/16=394228 rewritten rule: 1|15) to income.2042.income.amount  Asset rule:1|16 Division: 6307648/16=394228 rewritten rule: 1|15</t>
   </si>
   <si>
-    <t>transfered -421824 + 92801 (tax) = 329023 to income.2043.income.amount  transfer 421824 (Division: 6327359/15=421824 rewritten rule: 1|14) to income.2043.income.amount  Asset rule:1|15 Division: 6327359/15=421824 rewritten rule: 1|14</t>
+    <t>transfered 421824 with 147363 (tax) to income.2043.income.amount  transfer 421824 (Division: 6327359/15=421824 rewritten rule: 1|14) to income.2043.income.amount  Asset rule:1|15 Division: 6327359/15=421824 rewritten rule: 1|14</t>
   </si>
   <si>
-    <t>transfered -451352 + 99297 (tax) = 352055 to income.2044.income.amount  transfer 451352 (Division: 6318922/14=451352 rewritten rule: 1|13) to income.2044.income.amount  Asset rule:1|14 Division: 6318922/14=451352 rewritten rule: 1|13</t>
+    <t>transfered 451352 with 158406 (tax) to income.2044.income.amount  transfer 451352 (Division: 6318922/14=451352 rewritten rule: 1|13) to income.2044.income.amount  Asset rule:1|14 Division: 6318922/14=451352 rewritten rule: 1|13</t>
   </si>
   <si>
-    <t>transfered -482946 + 106248 (tax) = 376698 to income.2045.income.amount  transfer 482946 (Division: 6278300/13=482946 rewritten rule: 1|12) to income.2045.income.amount  Asset rule:1|13 Division: 6278300/13=482946 rewritten rule: 1|12</t>
+    <t>transfered 482946 with 170223 (tax) to income.2045.income.amount  transfer 482946 (Division: 6278300/13=482946 rewritten rule: 1|12) to income.2045.income.amount  Asset rule:1|13 Division: 6278300/13=482946 rewritten rule: 1|12</t>
   </si>
   <si>
-    <t>transfered -516752 + 113685 (tax) = 403067 to income.2046.income.amount  transfer 516752 (Division: 6201029/12=516752 rewritten rule: 1|11) to income.2046.income.amount  Asset rule:1|12 Division: 6201029/12=516752 rewritten rule: 1|11</t>
+    <t>transfered 516752 with 182866 (tax) to income.2046.income.amount  transfer 516752 (Division: 6201029/12=516752 rewritten rule: 1|11) to income.2046.income.amount  Asset rule:1|12 Division: 6201029/12=516752 rewritten rule: 1|11</t>
   </si>
   <si>
-    <t>transfered -552925 + 121644 (tax) = 431281 to income.2047.income.amount  transfer 552925 (Division: 6082176/11=552925 rewritten rule: 1|10) to income.2047.income.amount  Asset rule:1|11 Division: 6082176/11=552925 rewritten rule: 1|10</t>
+    <t>transfered 552925 with 196395 (tax) to income.2047.income.amount  transfer 552925 (Division: 6082176/11=552925 rewritten rule: 1|10) to income.2047.income.amount  Asset rule:1|11 Division: 6082176/11=552925 rewritten rule: 1|10</t>
   </si>
   <si>
-    <t>transfered -591630 + 130159 (tax) = 461471 to income.2048.income.amount  transfer 591630 (Division: 5916299/10=591630 rewritten rule: 1|9) to income.2048.income.amount  Asset rule:1|10 Division: 5916299/10=591630 rewritten rule: 1|9</t>
+    <t>transfered 591630 with 210871 (tax) to income.2048.income.amount  transfer 591630 (Division: 5916299/10=591630 rewritten rule: 1|9) to income.2048.income.amount  Asset rule:1|10 Division: 5916299/10=591630 rewritten rule: 1|9</t>
   </si>
   <si>
-    <t>transfered -633044 + 139270 (tax) = 493774 to income.2049.income.amount  transfer 633044 (Division: 5697396/9=633044 rewritten rule: 1|8) to income.2049.income.amount  Asset rule:1|9 Division: 5697396/9=633044 rewritten rule: 1|8</t>
+    <t>transfered 633044 with 226360 (tax) to income.2049.income.amount  transfer 633044 (Division: 5697396/9=633044 rewritten rule: 1|8) to income.2049.income.amount  Asset rule:1|9 Division: 5697396/9=633044 rewritten rule: 1|8</t>
   </si>
   <si>
-    <t>transfered -677357 + 149019 (tax) = 528338 to income.2050.income.amount  transfer 677357 (Division: 5418857/8=677357 rewritten rule: 1|7) to income.2050.income.amount  Asset rule:1|8 Division: 5418857/8=677357 rewritten rule: 1|7</t>
+    <t>transfered 677357 with 243640 (tax) to income.2050.income.amount  transfer 677357 (Division: 5418857/8=677357 rewritten rule: 1|7) to income.2050.income.amount  Asset rule:1|8 Division: 5418857/8=677357 rewritten rule: 1|7</t>
   </si>
   <si>
-    <t>transfered -724772 + 159450 (tax) = 565322 to income.2051.income.amount  transfer 724772 (Division: 5073405/7=724772 rewritten rule: 1|6) to income.2051.income.amount  Asset rule:1|7 Division: 5073405/7=724772 rewritten rule: 1|6</t>
+    <t>transfered 724772 with 265924 (tax) to income.2051.income.amount  transfer 724772 (Division: 5073405/7=724772 rewritten rule: 1|6) to income.2051.income.amount  Asset rule:1|7 Division: 5073405/7=724772 rewritten rule: 1|6</t>
   </si>
   <si>
-    <t>transfered -775506 + 170611 (tax) = 604895 to income.2052.income.amount  transfer 775506 (Division: 4653037/6=775506 rewritten rule: 1|5) to income.2052.income.amount  Asset rule:1|6 Division: 4653037/6=775506 rewritten rule: 1|5</t>
+    <t>transfered 775506 with 289769 (tax) to income.2052.income.amount  transfer 775506 (Division: 4653037/6=775506 rewritten rule: 1|5) to income.2052.income.amount  Asset rule:1|6 Division: 4653037/6=775506 rewritten rule: 1|5</t>
   </si>
   <si>
-    <t>transfered -829792 + 182554 (tax) = 647238 to income.2053.income.amount  transfer 829792 (Division: 4148958/5=829792 rewritten rule: 1|4) to income.2053.income.amount  Asset rule:1|5 Division: 4148958/5=829792 rewritten rule: 1|4</t>
+    <t>transfered 829792 with 315283 (tax) to income.2053.income.amount  transfer 829792 (Division: 4148958/5=829792 rewritten rule: 1|4) to income.2053.income.amount  Asset rule:1|5 Division: 4148958/5=829792 rewritten rule: 1|4</t>
   </si>
   <si>
-    <t>transfered -887877 + 195333 (tax) = 692544 to income.2054.income.amount  transfer 887877 (Division: 3551508/4=887877 rewritten rule: 1|3) to income.2054.income.amount  Asset rule:1|4 Division: 3551508/4=887877 rewritten rule: 1|3</t>
+    <t>transfered 887877 with 342583 (tax) to income.2054.income.amount  transfer 887877 (Division: 3551508/4=887877 rewritten rule: 1|3) to income.2054.income.amount  Asset rule:1|4 Division: 3551508/4=887877 rewritten rule: 1|3</t>
   </si>
   <si>
-    <t>transfered -950028 + 209006 (tax) = 741022 to income.2055.income.amount  transfer 950028 (Division: 2850085/3=950028 rewritten rule: 1|2) to income.2055.income.amount  Asset rule:1|3 Division: 2850085/3=950028 rewritten rule: 1|2</t>
+    <t>transfered 950028 with 372157 (tax) to income.2055.income.amount  transfer 950028 (Division: 2850085/3=950028 rewritten rule: 1|2) to income.2055.income.amount  Asset rule:1|3 Division: 2850085/3=950028 rewritten rule: 1|2</t>
   </si>
   <si>
-    <t>transfered -1016531 + 223637 (tax) = 792894 to income.2056.income.amount  transfer 1016531 (Division: 2033061/2=1016531 rewritten rule: 1|1) to income.2056.income.amount  Asset rule:1|2 Division: 2033061/2=1016531 rewritten rule: 1|1</t>
+    <t>transfered 1016531 with 405410 (tax) to income.2056.income.amount  transfer 1016531 (Division: 2033061/2=1016531 rewritten rule: 1|1) to income.2056.income.amount  Asset rule:1|2 Division: 2033061/2=1016531 rewritten rule: 1|1</t>
   </si>
   <si>
-    <t xml:space="preserve">transfered -1087687 + 239291 (tax) = 848396 to income.2057.income.amount  transfer 1087687 (Division: 1087687/1=1087687 rewritten rule: ) to income.2057.income.amount </t>
+    <t xml:space="preserve">transfered 1087687 with 440987 (tax) to income.2057.income.amount  transfer 1087687 (Division: 1087687/1=1087687 rewritten rule: ) to income.2057.income.amount </t>
   </si>
   <si>
     <t>Income</t>
@@ -375,64 +375,64 @@
     <t>Inntekt fra investeringer, må være helt til slutt i konfigurasjonsfilen siden alle transfers til slutt havner her. Alle transfer hit er også ferdig skattet, så det skal ikke skattes i denne kategorien.</t>
   </si>
   <si>
-    <t xml:space="preserve">transfered 300755 - 66166 (tax) = 234589 from otp.2038.asset.marketAmount  transfer 300755 (Division: 6015094/20=300755 rewritten rule: 1|19) to income.2038.income.amount </t>
+    <t xml:space="preserve">transfered 300755 with 102083 (tax) from otp.2038.asset.marketAmount  transfer 300755 (Division: 6015094/20=300755 rewritten rule: 1|19) to income.2038.income.amount </t>
   </si>
   <si>
-    <t xml:space="preserve">transfered 321808 - 70798 (tax) = 251010 from otp.2039.asset.marketAmount  transfer 321808 (Division: 6114343/19=321808 rewritten rule: 1|18) to income.2039.income.amount </t>
+    <t xml:space="preserve">transfered 321808 with 109957 (tax) from otp.2039.asset.marketAmount  transfer 321808 (Division: 6114343/19=321808 rewritten rule: 1|18) to income.2039.income.amount </t>
   </si>
   <si>
-    <t xml:space="preserve">transfered 344334 - 75753 (tax) = 268581 from otp.2040.asset.marketAmount  transfer 344334 (Division: 6198012/18=344334 rewritten rule: 1|17) to income.2040.income.amount </t>
+    <t xml:space="preserve">transfered 344334 with 118381 (tax) from otp.2040.asset.marketAmount  transfer 344334 (Division: 6198012/18=344334 rewritten rule: 1|17) to income.2040.income.amount </t>
   </si>
   <si>
-    <t xml:space="preserve">transfered 368437 - 81056 (tax) = 287381 from otp.2041.asset.marketAmount  transfer 368437 (Division: 6263435/17=368437 rewritten rule: 1|16) to income.2041.income.amount </t>
+    <t xml:space="preserve">transfered 368437 with 127396 (tax) from otp.2041.asset.marketAmount  transfer 368437 (Division: 6263435/17=368437 rewritten rule: 1|16) to income.2041.income.amount </t>
   </si>
   <si>
-    <t xml:space="preserve">transfered 394228 - 86730 (tax) = 307498 from otp.2042.asset.marketAmount  transfer 394228 (Division: 6307648/16=394228 rewritten rule: 1|15) to income.2042.income.amount </t>
+    <t xml:space="preserve">transfered 394228 with 137042 (tax) from otp.2042.asset.marketAmount  transfer 394228 (Division: 6307648/16=394228 rewritten rule: 1|15) to income.2042.income.amount </t>
   </si>
   <si>
-    <t xml:space="preserve">transfered 421824 - 92801 (tax) = 329023 from otp.2043.asset.marketAmount  transfer 421824 (Division: 6327359/15=421824 rewritten rule: 1|14) to income.2043.income.amount </t>
+    <t xml:space="preserve">transfered 421824 with 147363 (tax) from otp.2043.asset.marketAmount  transfer 421824 (Division: 6327359/15=421824 rewritten rule: 1|14) to income.2043.income.amount </t>
   </si>
   <si>
-    <t xml:space="preserve">transfered 451352 - 99297 (tax) = 352055 from otp.2044.asset.marketAmount  transfer 451352 (Division: 6318922/14=451352 rewritten rule: 1|13) to income.2044.income.amount </t>
+    <t xml:space="preserve">transfered 451352 with 158406 (tax) from otp.2044.asset.marketAmount  transfer 451352 (Division: 6318922/14=451352 rewritten rule: 1|13) to income.2044.income.amount </t>
   </si>
   <si>
-    <t xml:space="preserve">transfered 482946 - 106248 (tax) = 376698 from otp.2045.asset.marketAmount  transfer 482946 (Division: 6278300/13=482946 rewritten rule: 1|12) to income.2045.income.amount </t>
+    <t xml:space="preserve">transfered 482946 with 170223 (tax) from otp.2045.asset.marketAmount  transfer 482946 (Division: 6278300/13=482946 rewritten rule: 1|12) to income.2045.income.amount </t>
   </si>
   <si>
-    <t xml:space="preserve">transfered 516752 - 113685 (tax) = 403067 from otp.2046.asset.marketAmount  transfer 516752 (Division: 6201029/12=516752 rewritten rule: 1|11) to income.2046.income.amount </t>
+    <t xml:space="preserve">transfered 516752 with 182866 (tax) from otp.2046.asset.marketAmount  transfer 516752 (Division: 6201029/12=516752 rewritten rule: 1|11) to income.2046.income.amount </t>
   </si>
   <si>
-    <t xml:space="preserve">transfered 552925 - 121644 (tax) = 431281 from otp.2047.asset.marketAmount  transfer 552925 (Division: 6082176/11=552925 rewritten rule: 1|10) to income.2047.income.amount </t>
+    <t xml:space="preserve">transfered 552925 with 196395 (tax) from otp.2047.asset.marketAmount  transfer 552925 (Division: 6082176/11=552925 rewritten rule: 1|10) to income.2047.income.amount </t>
   </si>
   <si>
-    <t xml:space="preserve">transfered 591630 - 130159 (tax) = 461471 from otp.2048.asset.marketAmount  transfer 591630 (Division: 5916299/10=591630 rewritten rule: 1|9) to income.2048.income.amount </t>
+    <t xml:space="preserve">transfered 591630 with 210871 (tax) from otp.2048.asset.marketAmount  transfer 591630 (Division: 5916299/10=591630 rewritten rule: 1|9) to income.2048.income.amount </t>
   </si>
   <si>
-    <t xml:space="preserve">transfered 633044 - 139270 (tax) = 493774 from otp.2049.asset.marketAmount  transfer 633044 (Division: 5697396/9=633044 rewritten rule: 1|8) to income.2049.income.amount </t>
+    <t xml:space="preserve">transfered 633044 with 226360 (tax) from otp.2049.asset.marketAmount  transfer 633044 (Division: 5697396/9=633044 rewritten rule: 1|8) to income.2049.income.amount </t>
   </si>
   <si>
-    <t xml:space="preserve">transfered 677357 - 149019 (tax) = 528338 from otp.2050.asset.marketAmount  transfer 677357 (Division: 5418857/8=677357 rewritten rule: 1|7) to income.2050.income.amount </t>
+    <t xml:space="preserve">transfered 677357 with 243640 (tax) from otp.2050.asset.marketAmount  transfer 677357 (Division: 5418857/8=677357 rewritten rule: 1|7) to income.2050.income.amount </t>
   </si>
   <si>
-    <t xml:space="preserve">transfered 724772 - 159450 (tax) = 565322 from otp.2051.asset.marketAmount  transfer 724772 (Division: 5073405/7=724772 rewritten rule: 1|6) to income.2051.income.amount </t>
+    <t xml:space="preserve">transfered 724772 with 265924 (tax) from otp.2051.asset.marketAmount  transfer 724772 (Division: 5073405/7=724772 rewritten rule: 1|6) to income.2051.income.amount </t>
   </si>
   <si>
-    <t xml:space="preserve">transfered 775506 - 170611 (tax) = 604895 from otp.2052.asset.marketAmount  transfer 775506 (Division: 4653037/6=775506 rewritten rule: 1|5) to income.2052.income.amount </t>
+    <t xml:space="preserve">transfered 775506 with 289769 (tax) from otp.2052.asset.marketAmount  transfer 775506 (Division: 4653037/6=775506 rewritten rule: 1|5) to income.2052.income.amount </t>
   </si>
   <si>
-    <t xml:space="preserve">transfered 829792 - 182554 (tax) = 647238 from otp.2053.asset.marketAmount  transfer 829792 (Division: 4148958/5=829792 rewritten rule: 1|4) to income.2053.income.amount </t>
+    <t xml:space="preserve">transfered 829792 with 315283 (tax) from otp.2053.asset.marketAmount  transfer 829792 (Division: 4148958/5=829792 rewritten rule: 1|4) to income.2053.income.amount </t>
   </si>
   <si>
-    <t xml:space="preserve">transfered 887877 - 195333 (tax) = 692544 from otp.2054.asset.marketAmount  transfer 887877 (Division: 3551508/4=887877 rewritten rule: 1|3) to income.2054.income.amount </t>
+    <t xml:space="preserve">transfered 887877 with 342583 (tax) from otp.2054.asset.marketAmount  transfer 887877 (Division: 3551508/4=887877 rewritten rule: 1|3) to income.2054.income.amount </t>
   </si>
   <si>
-    <t xml:space="preserve">transfered 950028 - 209006 (tax) = 741022 from otp.2055.asset.marketAmount  transfer 950028 (Division: 2850085/3=950028 rewritten rule: 1|2) to income.2055.income.amount </t>
+    <t xml:space="preserve">transfered 950028 with 372157 (tax) from otp.2055.asset.marketAmount  transfer 950028 (Division: 2850085/3=950028 rewritten rule: 1|2) to income.2055.income.amount </t>
   </si>
   <si>
-    <t xml:space="preserve">transfered 1016531 - 223637 (tax) = 792894 from otp.2056.asset.marketAmount  transfer 1016531 (Division: 2033061/2=1016531 rewritten rule: 1|1) to income.2056.income.amount </t>
+    <t xml:space="preserve">transfered 1016531 with 405410 (tax) from otp.2056.asset.marketAmount  transfer 1016531 (Division: 2033061/2=1016531 rewritten rule: 1|1) to income.2056.income.amount </t>
   </si>
   <si>
-    <t xml:space="preserve">transfered 1087687 - 239291 (tax) = 848396 from otp.2057.asset.marketAmount  transfer 1087687 (Division: 1087687/1=1087687 rewritten rule: ) to income.2057.income.amount </t>
+    <t xml:space="preserve">transfered 1087687 with 440987 (tax) from otp.2057.asset.marketAmount  transfer 1087687 (Division: 1087687/1=1087687 rewritten rule: ) to income.2057.income.amount </t>
   </si>
   <si>
     <t>total</t>
@@ -877,7 +877,7 @@
     <col min="31" max="31" width="21.138" bestFit="true" customWidth="true" style="0"/>
     <col min="32" max="32" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="33" max="33" width="8.141" bestFit="true" customWidth="true" style="0"/>
-    <col min="34" max="34" width="6.998" bestFit="true" customWidth="true" style="0"/>
+    <col min="34" max="34" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="35" max="35" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="36" max="36" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="37" max="37" width="16.425" bestFit="true" customWidth="true" style="0"/>
@@ -4162,17 +4162,17 @@
       </c>
       <c r="Z37" s="3"/>
       <c r="AA37" s="1">
-        <v>1229048.0</v>
+        <v>733678.0</v>
       </c>
       <c r="AB37" s="1">
-        <v>148170.0</v>
+        <v>0</v>
       </c>
       <c r="AC37" s="6">
-        <v>32597.0</v>
+        <v>527967.0</v>
       </c>
       <c r="AD37" s="2"/>
       <c r="AE37" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF37" s="2"/>
       <c r="AG37" s="2">
@@ -4271,17 +4271,17 @@
       </c>
       <c r="Z38" s="3"/>
       <c r="AA38" s="1">
-        <v>1142807.3</v>
+        <v>834273.3</v>
       </c>
       <c r="AB38" s="1">
-        <v>1465137.3</v>
+        <v>0</v>
       </c>
       <c r="AC38" s="6">
-        <v>322330.0</v>
+        <v>630864.0</v>
       </c>
       <c r="AD38" s="2"/>
       <c r="AE38" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF38" s="2"/>
       <c r="AG38" s="2">
@@ -4380,17 +4380,17 @@
       </c>
       <c r="Z39" s="11"/>
       <c r="AA39" s="9">
-        <v>1320417.9</v>
+        <v>945850.9</v>
       </c>
       <c r="AB39" s="9">
-        <v>1692843.9</v>
+        <v>0</v>
       </c>
       <c r="AC39" s="9">
-        <v>372426.0</v>
+        <v>746993.0</v>
       </c>
       <c r="AD39" s="10"/>
       <c r="AE39" s="9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF39" s="10"/>
       <c r="AG39" s="10">
@@ -4489,17 +4489,17 @@
       </c>
       <c r="Z40" s="15"/>
       <c r="AA40" s="13">
-        <v>1517690.0</v>
+        <v>1069777.0</v>
       </c>
       <c r="AB40" s="13">
-        <v>1945757.0</v>
+        <v>0</v>
       </c>
       <c r="AC40" s="13">
-        <v>428067.0</v>
+        <v>875980.0</v>
       </c>
       <c r="AD40" s="14"/>
       <c r="AE40" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF40" s="14"/>
       <c r="AG40" s="14">
@@ -4598,17 +4598,17 @@
       </c>
       <c r="Z41" s="3"/>
       <c r="AA41" s="1">
-        <v>1688650.35</v>
+        <v>1177174.35</v>
       </c>
       <c r="AB41" s="1">
-        <v>2164936.35</v>
+        <v>0</v>
       </c>
       <c r="AC41" s="6">
-        <v>476286.0</v>
+        <v>987762.0</v>
       </c>
       <c r="AD41" s="2"/>
       <c r="AE41" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF41" s="2"/>
       <c r="AG41" s="2">
@@ -4707,17 +4707,17 @@
       </c>
       <c r="Z42" s="3"/>
       <c r="AA42" s="1">
-        <v>1872870.38</v>
+        <v>1292903.38</v>
       </c>
       <c r="AB42" s="1">
-        <v>2401116.38</v>
+        <v>0</v>
       </c>
       <c r="AC42" s="6">
-        <v>528246.0</v>
+        <v>1108213.0</v>
       </c>
       <c r="AD42" s="2"/>
       <c r="AE42" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF42" s="2"/>
       <c r="AG42" s="2">
@@ -4816,17 +4816,17 @@
       </c>
       <c r="Z43" s="3"/>
       <c r="AA43" s="1">
-        <v>2071306.72</v>
+        <v>1417561.72</v>
       </c>
       <c r="AB43" s="1">
-        <v>2655521.72</v>
+        <v>0</v>
       </c>
       <c r="AC43" s="6">
-        <v>584215.0</v>
+        <v>1237960.0</v>
       </c>
       <c r="AD43" s="2"/>
       <c r="AE43" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF43" s="2"/>
       <c r="AG43" s="2">
@@ -4925,17 +4925,17 @@
       </c>
       <c r="Z44" s="3"/>
       <c r="AA44" s="1">
-        <v>2284981.12</v>
+        <v>1551793.12</v>
       </c>
       <c r="AB44" s="1">
-        <v>2929463.12</v>
+        <v>0</v>
       </c>
       <c r="AC44" s="6">
-        <v>644482.0</v>
+        <v>1377670.0</v>
       </c>
       <c r="AD44" s="2"/>
       <c r="AE44" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF44" s="2"/>
       <c r="AG44" s="2">
@@ -5034,17 +5034,17 @@
       </c>
       <c r="Z45" s="3"/>
       <c r="AA45" s="1">
-        <v>2514986.21</v>
+        <v>1696283.21</v>
       </c>
       <c r="AB45" s="1">
-        <v>3224341.21</v>
+        <v>0</v>
       </c>
       <c r="AC45" s="6">
-        <v>709355.0</v>
+        <v>1528058.0</v>
       </c>
       <c r="AD45" s="2"/>
       <c r="AE45" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF45" s="2"/>
       <c r="AG45" s="2">
@@ -5143,17 +5143,17 @@
       </c>
       <c r="Z46" s="3"/>
       <c r="AA46" s="1">
-        <v>2762492.13</v>
+        <v>1851768.13</v>
       </c>
       <c r="AB46" s="1">
-        <v>3541656.13</v>
+        <v>0</v>
       </c>
       <c r="AC46" s="6">
-        <v>779164.0</v>
+        <v>1689888.0</v>
       </c>
       <c r="AD46" s="2"/>
       <c r="AE46" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF46" s="2"/>
       <c r="AG46" s="2">
@@ -5252,17 +5252,17 @@
       </c>
       <c r="Z47" s="3"/>
       <c r="AA47" s="1">
-        <v>3028752.02</v>
+        <v>2019033.02</v>
       </c>
       <c r="AB47" s="1">
-        <v>3883015.02</v>
+        <v>0</v>
       </c>
       <c r="AC47" s="6">
-        <v>854263.0</v>
+        <v>1863982.0</v>
       </c>
       <c r="AD47" s="2"/>
       <c r="AE47" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF47" s="2"/>
       <c r="AG47" s="2">
@@ -5361,17 +5361,17 @@
       </c>
       <c r="Z48" s="3"/>
       <c r="AA48" s="1">
-        <v>3315108.51</v>
+        <v>2198924.51</v>
       </c>
       <c r="AB48" s="1">
-        <v>4250139.51</v>
+        <v>0</v>
       </c>
       <c r="AC48" s="6">
-        <v>935031.0</v>
+        <v>2051215.0</v>
       </c>
       <c r="AD48" s="2"/>
       <c r="AE48" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF48" s="2"/>
       <c r="AG48" s="2">
@@ -5470,17 +5470,17 @@
       </c>
       <c r="Z49" s="3"/>
       <c r="AA49" s="1">
-        <v>3622999.0</v>
+        <v>2392343.0</v>
       </c>
       <c r="AB49" s="1">
-        <v>4644870.0</v>
+        <v>0</v>
       </c>
       <c r="AC49" s="6">
-        <v>1021871.0</v>
+        <v>2252527.0</v>
       </c>
       <c r="AD49" s="2"/>
       <c r="AE49" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF49" s="2"/>
       <c r="AG49" s="2">
@@ -5579,17 +5579,17 @@
       </c>
       <c r="Z50" s="3"/>
       <c r="AA50" s="1">
-        <v>3953956.22</v>
+        <v>2600251.22</v>
       </c>
       <c r="AB50" s="1">
-        <v>5069174.22</v>
+        <v>0</v>
       </c>
       <c r="AC50" s="6">
-        <v>1115218.0</v>
+        <v>2468923.0</v>
       </c>
       <c r="AD50" s="2"/>
       <c r="AE50" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF50" s="2"/>
       <c r="AG50" s="2">
@@ -5688,17 +5688,17 @@
       </c>
       <c r="Z51" s="3"/>
       <c r="AA51" s="1">
-        <v>4309627.28</v>
+        <v>2823685.28</v>
       </c>
       <c r="AB51" s="1">
-        <v>5525163.28</v>
+        <v>0</v>
       </c>
       <c r="AC51" s="6">
-        <v>1215536.0</v>
+        <v>2701478.0</v>
       </c>
       <c r="AD51" s="2"/>
       <c r="AE51" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF51" s="2"/>
       <c r="AG51" s="2">
@@ -5797,17 +5797,17 @@
       </c>
       <c r="Z52" s="3"/>
       <c r="AA52" s="1">
-        <v>4691772.81</v>
+        <v>3063752.81</v>
       </c>
       <c r="AB52" s="1">
-        <v>6015093.81</v>
+        <v>0</v>
       </c>
       <c r="AC52" s="6">
-        <v>1323321.0</v>
+        <v>2951341.0</v>
       </c>
       <c r="AD52" s="2"/>
       <c r="AE52" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF52" s="2"/>
       <c r="AG52" s="2">
@@ -5844,10 +5844,10 @@
         <v>63</v>
       </c>
       <c r="C53" s="16">
-        <v>1198793.0</v>
+        <v>1264959.0</v>
       </c>
       <c r="D53" s="17">
-        <v>0.24</v>
+        <v>0.31</v>
       </c>
       <c r="E53" s="16">
         <v>272352.24</v>
@@ -5856,10 +5856,10 @@
         <v>0.02</v>
       </c>
       <c r="G53" s="16">
-        <v>445411.0</v>
+        <v>481328.0</v>
       </c>
       <c r="H53" s="17">
-        <v>0.37154955025597</v>
+        <v>0.38050877538323</v>
       </c>
       <c r="I53" s="16">
         <v>0</v>
@@ -5906,37 +5906,37 @@
       </c>
       <c r="Z53" s="18"/>
       <c r="AA53" s="16">
-        <v>4769187.73</v>
+        <v>3112384.73</v>
       </c>
       <c r="AB53" s="16">
-        <v>6114342.73</v>
+        <v>0</v>
       </c>
       <c r="AC53" s="16">
-        <v>1345155.0</v>
+        <v>3001958.0</v>
       </c>
       <c r="AD53" s="17"/>
       <c r="AE53" s="16">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF53" s="17"/>
       <c r="AG53" s="17">
-        <v>0.81</v>
+        <v>0.85</v>
       </c>
       <c r="AH53" s="17">
-        <v>0.62</v>
+        <v>0.67</v>
       </c>
       <c r="AI53" s="16">
-        <v>715618.76</v>
+        <v>812033.76</v>
       </c>
       <c r="AJ53" s="16">
-        <v>4772058.57</v>
+        <v>4868473.57</v>
       </c>
       <c r="AK53" s="17"/>
       <c r="AL53" s="16">
-        <v>1198793.0</v>
+        <v>1264959.0</v>
       </c>
       <c r="AM53" s="16">
-        <v>5993965.0</v>
+        <v>6324795.0</v>
       </c>
       <c r="AN53" s="16">
         <v>-300755.0</v>
@@ -5953,10 +5953,10 @@
         <v>64</v>
       </c>
       <c r="C54" s="5">
-        <v>251010.0</v>
+        <v>321808.0</v>
       </c>
       <c r="D54" s="2">
-        <v>0.79</v>
+        <v>0.74</v>
       </c>
       <c r="E54" s="6">
         <v>277799.04</v>
@@ -5965,10 +5965,10 @@
         <v>0.01</v>
       </c>
       <c r="G54" s="1">
-        <v>70798.0</v>
+        <v>109957.0</v>
       </c>
       <c r="H54" s="2">
-        <v>0.28205250786821</v>
+        <v>0.34168510416149</v>
       </c>
       <c r="I54" s="1">
         <v>0</v>
@@ -6015,37 +6015,37 @@
       </c>
       <c r="Z54" s="3"/>
       <c r="AA54" s="1">
-        <v>4834449.45</v>
+        <v>3153382.45</v>
       </c>
       <c r="AB54" s="1">
-        <v>6198012.45</v>
+        <v>0</v>
       </c>
       <c r="AC54" s="6">
-        <v>1363563.0</v>
+        <v>3044630.0</v>
       </c>
       <c r="AD54" s="2"/>
       <c r="AE54" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF54" s="2"/>
       <c r="AG54" s="2">
-        <v>0.21</v>
+        <v>0.27</v>
       </c>
       <c r="AH54" s="2">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="AI54" s="7">
-        <v>153422.96</v>
+        <v>255859.96</v>
       </c>
       <c r="AJ54" s="1">
-        <v>4925481.53</v>
+        <v>5124333.53</v>
       </c>
       <c r="AK54" s="2"/>
       <c r="AL54" s="1">
-        <v>251010.0</v>
+        <v>321808.0</v>
       </c>
       <c r="AM54" s="1">
-        <v>1255050.0</v>
+        <v>1609040.0</v>
       </c>
       <c r="AN54" s="1">
         <v>-321808.0</v>
@@ -6062,10 +6062,10 @@
         <v>65</v>
       </c>
       <c r="C55" s="5">
-        <v>268581.0</v>
+        <v>344334.0</v>
       </c>
       <c r="D55" s="2">
-        <v>0.07</v>
+        <v>0.06</v>
       </c>
       <c r="E55" s="6">
         <v>283354.98</v>
@@ -6074,10 +6074,10 @@
         <v>0.01</v>
       </c>
       <c r="G55" s="1">
-        <v>75753.0</v>
+        <v>118381.0</v>
       </c>
       <c r="H55" s="2">
-        <v>0.28204899080724</v>
+        <v>0.3437970110416</v>
       </c>
       <c r="I55" s="1">
         <v>0</v>
@@ -6124,37 +6124,37 @@
       </c>
       <c r="Z55" s="3"/>
       <c r="AA55" s="1">
-        <v>4885479.46</v>
+        <v>3185438.46</v>
       </c>
       <c r="AB55" s="1">
-        <v>6263435.46</v>
+        <v>0</v>
       </c>
       <c r="AC55" s="6">
-        <v>1377956.0</v>
+        <v>3077997.0</v>
       </c>
       <c r="AD55" s="2"/>
       <c r="AE55" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF55" s="2"/>
       <c r="AG55" s="2">
-        <v>0.33</v>
+        <v>0.42</v>
       </c>
       <c r="AH55" s="2">
-        <v>0.01</v>
+        <v>0.07</v>
       </c>
       <c r="AI55" s="7">
-        <v>178054.02</v>
+        <v>286932.02</v>
       </c>
       <c r="AJ55" s="1">
-        <v>5103535.55</v>
+        <v>5411265.55</v>
       </c>
       <c r="AK55" s="2"/>
       <c r="AL55" s="1">
-        <v>268581.0</v>
+        <v>344334.0</v>
       </c>
       <c r="AM55" s="1">
-        <v>1342905.0</v>
+        <v>1721670.0</v>
       </c>
       <c r="AN55" s="1">
         <v>-344334.0</v>
@@ -6171,7 +6171,7 @@
         <v>66</v>
       </c>
       <c r="C56" s="5">
-        <v>287381.0</v>
+        <v>368437.0</v>
       </c>
       <c r="D56" s="2">
         <v>0.06</v>
@@ -6183,10 +6183,10 @@
         <v>0.02</v>
       </c>
       <c r="G56" s="1">
-        <v>81056.0</v>
+        <v>127396.0</v>
       </c>
       <c r="H56" s="2">
-        <v>0.28205065748953</v>
+        <v>0.34577417577496</v>
       </c>
       <c r="I56" s="1">
         <v>0</v>
@@ -6233,37 +6233,37 @@
       </c>
       <c r="Z56" s="3"/>
       <c r="AA56" s="1">
-        <v>4919964.86</v>
+        <v>3207103.86</v>
       </c>
       <c r="AB56" s="1">
-        <v>6307647.86</v>
+        <v>0</v>
       </c>
       <c r="AC56" s="6">
-        <v>1387683.0</v>
+        <v>3100544.0</v>
       </c>
       <c r="AD56" s="2"/>
       <c r="AE56" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF56" s="2"/>
       <c r="AG56" s="2">
-        <v>0.65</v>
+        <v>0.83</v>
       </c>
       <c r="AH56" s="2">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="AI56" s="7">
-        <v>204683.9</v>
+        <v>320455.9</v>
       </c>
       <c r="AJ56" s="1">
-        <v>5308219.45</v>
+        <v>5731721.45</v>
       </c>
       <c r="AK56" s="2"/>
       <c r="AL56" s="1">
-        <v>287381.0</v>
+        <v>368437.0</v>
       </c>
       <c r="AM56" s="1">
-        <v>1436905.0</v>
+        <v>1842185.0</v>
       </c>
       <c r="AN56" s="1">
         <v>-368437.0</v>
@@ -6280,7 +6280,7 @@
         <v>67</v>
       </c>
       <c r="C57" s="16">
-        <v>307498.0</v>
+        <v>394228.0</v>
       </c>
       <c r="D57" s="17">
         <v>0.07</v>
@@ -6292,10 +6292,10 @@
         <v>0.01</v>
       </c>
       <c r="G57" s="16">
-        <v>86730.0</v>
+        <v>137042.0</v>
       </c>
       <c r="H57" s="17">
-        <v>0.28205061496335</v>
+        <v>0.3476211735341</v>
       </c>
       <c r="I57" s="16">
         <v>0</v>
@@ -6342,37 +6342,37 @@
       </c>
       <c r="Z57" s="18"/>
       <c r="AA57" s="16">
-        <v>4935340.4</v>
+        <v>3216762.4</v>
       </c>
       <c r="AB57" s="16">
-        <v>6327359.4</v>
+        <v>0</v>
       </c>
       <c r="AC57" s="16">
-        <v>1392019.0</v>
+        <v>3110597.0</v>
       </c>
       <c r="AD57" s="17"/>
       <c r="AE57" s="16">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF57" s="17"/>
       <c r="AG57" s="17">
-        <v>6.47</v>
+        <v>8.3</v>
       </c>
       <c r="AH57" s="17">
-        <v>0.26</v>
+        <v>2.09</v>
       </c>
       <c r="AI57" s="16">
-        <v>233463.56</v>
+        <v>356611.56</v>
       </c>
       <c r="AJ57" s="16">
-        <v>5541683.01</v>
+        <v>6088333.01</v>
       </c>
       <c r="AK57" s="17"/>
       <c r="AL57" s="16">
-        <v>307498.0</v>
+        <v>394228.0</v>
       </c>
       <c r="AM57" s="16">
-        <v>1537490.0</v>
+        <v>1971140.0</v>
       </c>
       <c r="AN57" s="16">
         <v>-394228.0</v>
@@ -6389,7 +6389,7 @@
         <v>68</v>
       </c>
       <c r="C58" s="5">
-        <v>329023.0</v>
+        <v>421824.0</v>
       </c>
       <c r="D58" s="2">
         <v>0.07</v>
@@ -6401,10 +6401,10 @@
         <v>0.01</v>
       </c>
       <c r="G58" s="1">
-        <v>92801.0</v>
+        <v>147363.0</v>
       </c>
       <c r="H58" s="2">
-        <v>0.28205019102008</v>
+        <v>0.34934712107419</v>
       </c>
       <c r="I58" s="1">
         <v>0</v>
@@ -6451,33 +6451,33 @@
       </c>
       <c r="Z58" s="3"/>
       <c r="AA58" s="1">
-        <v>4928759.45</v>
+        <v>3212628.45</v>
       </c>
       <c r="AB58" s="1">
-        <v>6318922.45</v>
+        <v>0</v>
       </c>
       <c r="AC58" s="6">
-        <v>1390163.0</v>
+        <v>3106294.0</v>
       </c>
       <c r="AD58" s="2"/>
       <c r="AE58" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF58" s="2"/>
       <c r="AG58" s="2"/>
       <c r="AH58" s="2"/>
       <c r="AI58" s="7">
-        <v>264546.96</v>
+        <v>395586.96</v>
       </c>
       <c r="AJ58" s="1">
-        <v>5806229.97</v>
+        <v>6483919.97</v>
       </c>
       <c r="AK58" s="2"/>
       <c r="AL58" s="1">
-        <v>329023.0</v>
+        <v>421824.0</v>
       </c>
       <c r="AM58" s="1">
-        <v>1645115.0</v>
+        <v>2109120.0</v>
       </c>
       <c r="AN58" s="1">
         <v>-47492.0</v>
@@ -6494,7 +6494,7 @@
         <v>69</v>
       </c>
       <c r="C59" s="5">
-        <v>352055.0</v>
+        <v>451352.0</v>
       </c>
       <c r="D59" s="2">
         <v>0.07</v>
@@ -6506,10 +6506,10 @@
         <v>0.01</v>
       </c>
       <c r="G59" s="1">
-        <v>99297.0</v>
+        <v>158406.0</v>
       </c>
       <c r="H59" s="2">
-        <v>0.28204967973754</v>
+        <v>0.35095889682554</v>
       </c>
       <c r="I59" s="1">
         <v>0</v>
@@ -6556,33 +6556,33 @@
       </c>
       <c r="Z59" s="3"/>
       <c r="AA59" s="1">
-        <v>4897073.9</v>
+        <v>3192722.9</v>
       </c>
       <c r="AB59" s="1">
-        <v>6278299.9</v>
+        <v>0</v>
       </c>
       <c r="AC59" s="6">
-        <v>1381226.0</v>
+        <v>3085577.0</v>
       </c>
       <c r="AD59" s="2"/>
       <c r="AE59" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF59" s="2"/>
       <c r="AG59" s="2"/>
       <c r="AH59" s="2"/>
       <c r="AI59" s="7">
-        <v>298101.04</v>
+        <v>437586.04</v>
       </c>
       <c r="AJ59" s="1">
-        <v>6104331.01</v>
+        <v>6921506.01</v>
       </c>
       <c r="AK59" s="2"/>
       <c r="AL59" s="1">
-        <v>352055.0</v>
+        <v>451352.0</v>
       </c>
       <c r="AM59" s="1">
-        <v>1760275.0</v>
+        <v>2256760.0</v>
       </c>
       <c r="AN59" s="1">
         <v>0</v>
@@ -6599,7 +6599,7 @@
         <v>70</v>
       </c>
       <c r="C60" s="5">
-        <v>376698.0</v>
+        <v>482946.0</v>
       </c>
       <c r="D60" s="2">
         <v>0.06</v>
@@ -6611,10 +6611,10 @@
         <v>0.02</v>
       </c>
       <c r="G60" s="1">
-        <v>106248.0</v>
+        <v>170223.0</v>
       </c>
       <c r="H60" s="2">
-        <v>0.28205087364414</v>
+        <v>0.35246797778634</v>
       </c>
       <c r="I60" s="1">
         <v>0</v>
@@ -6661,33 +6661,33 @@
       </c>
       <c r="Z60" s="3"/>
       <c r="AA60" s="1">
-        <v>4836802.78</v>
+        <v>3154860.78</v>
       </c>
       <c r="AB60" s="1">
-        <v>6201028.78</v>
+        <v>0</v>
       </c>
       <c r="AC60" s="6">
-        <v>1364226.0</v>
+        <v>3046168.0</v>
       </c>
       <c r="AD60" s="2"/>
       <c r="AE60" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF60" s="2"/>
       <c r="AG60" s="2"/>
       <c r="AH60" s="2"/>
       <c r="AI60" s="7">
-        <v>334301.76</v>
+        <v>482822.76</v>
       </c>
       <c r="AJ60" s="1">
-        <v>6438632.77</v>
+        <v>7404328.77</v>
       </c>
       <c r="AK60" s="2"/>
       <c r="AL60" s="1">
-        <v>376698.0</v>
+        <v>482946.0</v>
       </c>
       <c r="AM60" s="1">
-        <v>1883490.0</v>
+        <v>2414730.0</v>
       </c>
       <c r="AN60" s="1">
         <v>0</v>
@@ -6704,10 +6704,10 @@
         <v>71</v>
       </c>
       <c r="C61" s="5">
-        <v>403067.0</v>
+        <v>516752.0</v>
       </c>
       <c r="D61" s="2">
-        <v>0.07</v>
+        <v>0.06</v>
       </c>
       <c r="E61" s="6">
         <v>319102.92</v>
@@ -6716,10 +6716,10 @@
         <v>0.01</v>
       </c>
       <c r="G61" s="1">
-        <v>113685.0</v>
+        <v>182866.0</v>
       </c>
       <c r="H61" s="2">
-        <v>0.28204988252573</v>
+        <v>0.3538757469734</v>
       </c>
       <c r="I61" s="1">
         <v>0</v>
@@ -6766,33 +6766,33 @@
       </c>
       <c r="Z61" s="3"/>
       <c r="AA61" s="1">
-        <v>4744097.39</v>
+        <v>3096622.39</v>
       </c>
       <c r="AB61" s="1">
-        <v>6082176.39</v>
+        <v>0</v>
       </c>
       <c r="AC61" s="6">
-        <v>1338079.0</v>
+        <v>2985554.0</v>
       </c>
       <c r="AD61" s="2"/>
       <c r="AE61" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF61" s="2"/>
       <c r="AG61" s="2"/>
       <c r="AH61" s="2"/>
       <c r="AI61" s="7">
-        <v>373346.08</v>
+        <v>531535.08</v>
       </c>
       <c r="AJ61" s="1">
-        <v>6811978.85</v>
+        <v>7935863.85</v>
       </c>
       <c r="AK61" s="2"/>
       <c r="AL61" s="1">
-        <v>403067.0</v>
+        <v>516752.0</v>
       </c>
       <c r="AM61" s="1">
-        <v>2015335.0</v>
+        <v>2583760.0</v>
       </c>
       <c r="AN61" s="1">
         <v>0</v>
@@ -6809,10 +6809,10 @@
         <v>72</v>
       </c>
       <c r="C62" s="5">
-        <v>431281.0</v>
+        <v>552925.0</v>
       </c>
       <c r="D62" s="2">
-        <v>0.06</v>
+        <v>0.07</v>
       </c>
       <c r="E62" s="6">
         <v>325485.06</v>
@@ -6821,10 +6821,10 @@
         <v>0.02</v>
       </c>
       <c r="G62" s="1">
-        <v>121644.0</v>
+        <v>196395.0</v>
       </c>
       <c r="H62" s="2">
-        <v>0.28205276838071</v>
+        <v>0.35519283808835</v>
       </c>
       <c r="I62" s="1">
         <v>0</v>
@@ -6871,33 +6871,33 @@
       </c>
       <c r="Z62" s="3"/>
       <c r="AA62" s="1">
-        <v>4614712.57</v>
+        <v>3015342.57</v>
       </c>
       <c r="AB62" s="1">
-        <v>5916298.57</v>
+        <v>0</v>
       </c>
       <c r="AC62" s="6">
-        <v>1301586.0</v>
+        <v>2900956.0</v>
       </c>
       <c r="AD62" s="2"/>
       <c r="AE62" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF62" s="2"/>
       <c r="AG62" s="2"/>
       <c r="AH62" s="2"/>
       <c r="AI62" s="7">
-        <v>415432.94</v>
+        <v>583969.94</v>
       </c>
       <c r="AJ62" s="1">
-        <v>7227411.79</v>
+        <v>8519833.79</v>
       </c>
       <c r="AK62" s="2"/>
       <c r="AL62" s="1">
-        <v>431281.0</v>
+        <v>552925.0</v>
       </c>
       <c r="AM62" s="1">
-        <v>2156405.0</v>
+        <v>2764625.0</v>
       </c>
       <c r="AN62" s="1">
         <v>0</v>
@@ -6914,7 +6914,7 @@
         <v>73</v>
       </c>
       <c r="C63" s="5">
-        <v>461471.0</v>
+        <v>591630.0</v>
       </c>
       <c r="D63" s="2">
         <v>0.07</v>
@@ -6926,10 +6926,10 @@
         <v>0.01</v>
       </c>
       <c r="G63" s="1">
-        <v>130159.0</v>
+        <v>210871.0</v>
       </c>
       <c r="H63" s="2">
-        <v>0.28205239332482</v>
+        <v>0.356423778375</v>
       </c>
       <c r="I63" s="1">
         <v>0</v>
@@ -6976,33 +6976,33 @@
       </c>
       <c r="Z63" s="3"/>
       <c r="AA63" s="1">
-        <v>4443968.83</v>
+        <v>2908079.83</v>
       </c>
       <c r="AB63" s="1">
-        <v>5697395.83</v>
+        <v>0</v>
       </c>
       <c r="AC63" s="6">
-        <v>1253427.0</v>
+        <v>2789316.0</v>
       </c>
       <c r="AD63" s="2"/>
       <c r="AE63" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF63" s="2"/>
       <c r="AG63" s="2"/>
       <c r="AH63" s="2"/>
       <c r="AI63" s="7">
-        <v>460788.3</v>
+        <v>640394.3</v>
       </c>
       <c r="AJ63" s="1">
-        <v>7688200.09</v>
+        <v>9160228.09</v>
       </c>
       <c r="AK63" s="2"/>
       <c r="AL63" s="1">
-        <v>461471.0</v>
+        <v>591630.0</v>
       </c>
       <c r="AM63" s="1">
-        <v>2307355.0</v>
+        <v>2958150.0</v>
       </c>
       <c r="AN63" s="1">
         <v>0</v>
@@ -7019,10 +7019,10 @@
         <v>74</v>
       </c>
       <c r="C64" s="5">
-        <v>493774.0</v>
+        <v>633044.0</v>
       </c>
       <c r="D64" s="2">
-        <v>0.07</v>
+        <v>0.06</v>
       </c>
       <c r="E64" s="6">
         <v>338634.9</v>
@@ -7031,10 +7031,10 @@
         <v>0.02</v>
       </c>
       <c r="G64" s="1">
-        <v>139270.0</v>
+        <v>226360.0</v>
       </c>
       <c r="H64" s="2">
-        <v>0.28205211290995</v>
+        <v>0.35757388112043</v>
       </c>
       <c r="I64" s="1">
         <v>0</v>
@@ -7081,33 +7081,33 @@
       </c>
       <c r="Z64" s="3"/>
       <c r="AA64" s="1">
-        <v>4226708.64</v>
+        <v>2771595.64</v>
       </c>
       <c r="AB64" s="1">
-        <v>5418856.64</v>
+        <v>0</v>
       </c>
       <c r="AC64" s="6">
-        <v>1192148.0</v>
+        <v>2647261.0</v>
       </c>
       <c r="AD64" s="2"/>
       <c r="AE64" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF64" s="2"/>
       <c r="AG64" s="2"/>
       <c r="AH64" s="2"/>
       <c r="AI64" s="7">
-        <v>509643.1</v>
+        <v>701093.1</v>
       </c>
       <c r="AJ64" s="1">
-        <v>8197843.19</v>
+        <v>9861321.19</v>
       </c>
       <c r="AK64" s="2"/>
       <c r="AL64" s="1">
-        <v>493774.0</v>
+        <v>633044.0</v>
       </c>
       <c r="AM64" s="1">
-        <v>2468870.0</v>
+        <v>3165220.0</v>
       </c>
       <c r="AN64" s="1">
         <v>0</v>
@@ -7124,7 +7124,7 @@
         <v>75</v>
       </c>
       <c r="C65" s="5">
-        <v>528338.0</v>
+        <v>677357.0</v>
       </c>
       <c r="D65" s="2">
         <v>0.06</v>
@@ -7136,10 +7136,10 @@
         <v>0.02</v>
       </c>
       <c r="G65" s="1">
-        <v>149019.0</v>
+        <v>243640.0</v>
       </c>
       <c r="H65" s="2">
-        <v>0.28205239827535</v>
+        <v>0.35969215642564</v>
       </c>
       <c r="I65" s="1">
         <v>0</v>
@@ -7186,33 +7186,33 @@
       </c>
       <c r="Z65" s="3"/>
       <c r="AA65" s="1">
-        <v>3957256.0</v>
+        <v>2602325.0</v>
       </c>
       <c r="AB65" s="1">
-        <v>5073405.0</v>
+        <v>0</v>
       </c>
       <c r="AC65" s="6">
-        <v>1116149.0</v>
+        <v>2471080.0</v>
       </c>
       <c r="AD65" s="2"/>
       <c r="AE65" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF65" s="2"/>
       <c r="AG65" s="2"/>
       <c r="AH65" s="2"/>
       <c r="AI65" s="7">
-        <v>562249.3</v>
+        <v>765666.3</v>
       </c>
       <c r="AJ65" s="1">
-        <v>8760092.49</v>
+        <v>10626987.49</v>
       </c>
       <c r="AK65" s="2"/>
       <c r="AL65" s="1">
-        <v>528338.0</v>
+        <v>677357.0</v>
       </c>
       <c r="AM65" s="1">
-        <v>2641690.0</v>
+        <v>3386785.0</v>
       </c>
       <c r="AN65" s="1">
         <v>0</v>
@@ -7229,7 +7229,7 @@
         <v>76</v>
       </c>
       <c r="C66" s="5">
-        <v>565322.0</v>
+        <v>724772.0</v>
       </c>
       <c r="D66" s="2">
         <v>0.07</v>
@@ -7241,10 +7241,10 @@
         <v>0.02</v>
       </c>
       <c r="G66" s="1">
-        <v>159450.0</v>
+        <v>265924.0</v>
       </c>
       <c r="H66" s="2">
-        <v>0.28205164490326</v>
+        <v>0.36690711009807</v>
       </c>
       <c r="I66" s="1">
         <v>0</v>
@@ -7291,33 +7291,33 @@
       </c>
       <c r="Z66" s="3"/>
       <c r="AA66" s="1">
-        <v>3629369.31</v>
+        <v>2396344.31</v>
       </c>
       <c r="AB66" s="1">
-        <v>4653037.31</v>
+        <v>0</v>
       </c>
       <c r="AC66" s="6">
-        <v>1023668.0</v>
+        <v>2256693.0</v>
       </c>
       <c r="AD66" s="2"/>
       <c r="AE66" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF66" s="2"/>
       <c r="AG66" s="2"/>
       <c r="AH66" s="2"/>
       <c r="AI66" s="7">
-        <v>618877.84</v>
+        <v>831303.84</v>
       </c>
       <c r="AJ66" s="1">
-        <v>9378970.33</v>
+        <v>11458291.33</v>
       </c>
       <c r="AK66" s="2"/>
       <c r="AL66" s="1">
-        <v>565322.0</v>
+        <v>724772.0</v>
       </c>
       <c r="AM66" s="1">
-        <v>2826610.0</v>
+        <v>3623860.0</v>
       </c>
       <c r="AN66" s="1">
         <v>0</v>
@@ -7334,10 +7334,10 @@
         <v>77</v>
       </c>
       <c r="C67" s="5">
-        <v>604895.0</v>
+        <v>775506.0</v>
       </c>
       <c r="D67" s="2">
-        <v>0.07</v>
+        <v>0.06</v>
       </c>
       <c r="E67" s="6">
         <v>359362.32</v>
@@ -7346,10 +7346,10 @@
         <v>0.01</v>
       </c>
       <c r="G67" s="1">
-        <v>170611.0</v>
+        <v>289769.0</v>
       </c>
       <c r="H67" s="2">
-        <v>0.2820506038238</v>
+        <v>0.37365152558459</v>
       </c>
       <c r="I67" s="1">
         <v>0</v>
@@ -7396,33 +7396,33 @@
       </c>
       <c r="Z67" s="3"/>
       <c r="AA67" s="1">
-        <v>3236187.17</v>
+        <v>2149345.17</v>
       </c>
       <c r="AB67" s="1">
-        <v>4148958.17</v>
+        <v>0</v>
       </c>
       <c r="AC67" s="6">
-        <v>912771.0</v>
+        <v>1999613.0</v>
       </c>
       <c r="AD67" s="2"/>
       <c r="AE67" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF67" s="2"/>
       <c r="AG67" s="2"/>
       <c r="AH67" s="2"/>
       <c r="AI67" s="7">
-        <v>679816.68</v>
+        <v>901880.68</v>
       </c>
       <c r="AJ67" s="1">
-        <v>10058787.01</v>
+        <v>12360172.01</v>
       </c>
       <c r="AK67" s="2"/>
       <c r="AL67" s="1">
-        <v>604895.0</v>
+        <v>775506.0</v>
       </c>
       <c r="AM67" s="1">
-        <v>3024475.0</v>
+        <v>3877530.0</v>
       </c>
       <c r="AN67" s="1">
         <v>0</v>
@@ -7439,7 +7439,7 @@
         <v>78</v>
       </c>
       <c r="C68" s="5">
-        <v>647238.0</v>
+        <v>829792.0</v>
       </c>
       <c r="D68" s="2">
         <v>0.07</v>
@@ -7451,10 +7451,10 @@
         <v>0.01</v>
       </c>
       <c r="G68" s="1">
-        <v>182554.0</v>
+        <v>315283.0</v>
       </c>
       <c r="H68" s="2">
-        <v>0.28205080665845</v>
+        <v>0.37995425359608</v>
       </c>
       <c r="I68" s="1">
         <v>0</v>
@@ -7501,33 +7501,33 @@
       </c>
       <c r="Z68" s="3"/>
       <c r="AA68" s="1">
-        <v>2770175.62</v>
+        <v>1856594.62</v>
       </c>
       <c r="AB68" s="1">
-        <v>3551507.62</v>
+        <v>0</v>
       </c>
       <c r="AC68" s="6">
-        <v>781332.0</v>
+        <v>1694913.0</v>
       </c>
       <c r="AD68" s="2"/>
       <c r="AE68" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF68" s="2"/>
       <c r="AG68" s="2"/>
       <c r="AH68" s="2"/>
       <c r="AI68" s="7">
-        <v>745372.76</v>
+        <v>977751.76</v>
       </c>
       <c r="AJ68" s="1">
-        <v>10804159.77</v>
+        <v>13337923.77</v>
       </c>
       <c r="AK68" s="2"/>
       <c r="AL68" s="1">
-        <v>647238.0</v>
+        <v>829792.0</v>
       </c>
       <c r="AM68" s="1">
-        <v>3236190.0</v>
+        <v>4148960.0</v>
       </c>
       <c r="AN68" s="1">
         <v>0</v>
@@ -7544,7 +7544,7 @@
         <v>79</v>
       </c>
       <c r="C69" s="5">
-        <v>692544.0</v>
+        <v>887877.0</v>
       </c>
       <c r="D69" s="2">
         <v>0.06</v>
@@ -7556,10 +7556,10 @@
         <v>0.01</v>
       </c>
       <c r="G69" s="1">
-        <v>195333.0</v>
+        <v>342583.0</v>
       </c>
       <c r="H69" s="2">
-        <v>0.28205139312448</v>
+        <v>0.38584511142872</v>
       </c>
       <c r="I69" s="1">
         <v>0</v>
@@ -7606,33 +7606,33 @@
       </c>
       <c r="Z69" s="3"/>
       <c r="AA69" s="1">
-        <v>2223066.17</v>
+        <v>1512897.17</v>
       </c>
       <c r="AB69" s="1">
-        <v>2850085.17</v>
+        <v>0</v>
       </c>
       <c r="AC69" s="6">
-        <v>627019.0</v>
+        <v>1337188.0</v>
       </c>
       <c r="AD69" s="2"/>
       <c r="AE69" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF69" s="2"/>
       <c r="AG69" s="2"/>
       <c r="AH69" s="2"/>
       <c r="AI69" s="7">
-        <v>815875.02</v>
+        <v>1059291.02</v>
       </c>
       <c r="AJ69" s="1">
-        <v>11620034.79</v>
+        <v>14397214.79</v>
       </c>
       <c r="AK69" s="2"/>
       <c r="AL69" s="1">
-        <v>692544.0</v>
+        <v>887877.0</v>
       </c>
       <c r="AM69" s="1">
-        <v>3462720.0</v>
+        <v>4439385.0</v>
       </c>
       <c r="AN69" s="1">
         <v>0</v>
@@ -7649,7 +7649,7 @@
         <v>80</v>
       </c>
       <c r="C70" s="5">
-        <v>741022.0</v>
+        <v>950028.0</v>
       </c>
       <c r="D70" s="2">
         <v>0.06</v>
@@ -7661,10 +7661,10 @@
         <v>0.02</v>
       </c>
       <c r="G70" s="1">
-        <v>209006.0</v>
+        <v>372157.0</v>
       </c>
       <c r="H70" s="2">
-        <v>0.28205100523331</v>
+        <v>0.39173266472146</v>
       </c>
       <c r="I70" s="1">
         <v>0</v>
@@ -7711,33 +7711,33 @@
       </c>
       <c r="Z70" s="3"/>
       <c r="AA70" s="1">
-        <v>1585787.99</v>
+        <v>1112555.99</v>
       </c>
       <c r="AB70" s="1">
-        <v>2033060.99</v>
+        <v>0</v>
       </c>
       <c r="AC70" s="6">
-        <v>447273.0</v>
+        <v>920505.0</v>
       </c>
       <c r="AD70" s="2"/>
       <c r="AE70" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF70" s="2"/>
       <c r="AG70" s="2"/>
       <c r="AH70" s="2"/>
       <c r="AI70" s="7">
-        <v>891680.4</v>
+        <v>1146541.4</v>
       </c>
       <c r="AJ70" s="1">
-        <v>12511715.19</v>
+        <v>15543756.19</v>
       </c>
       <c r="AK70" s="2"/>
       <c r="AL70" s="1">
-        <v>741022.0</v>
+        <v>950028.0</v>
       </c>
       <c r="AM70" s="1">
-        <v>3705110.0</v>
+        <v>4750140.0</v>
       </c>
       <c r="AN70" s="1">
         <v>0</v>
@@ -7754,7 +7754,7 @@
         <v>81</v>
       </c>
       <c r="C71" s="5">
-        <v>792894.0</v>
+        <v>1016531.0</v>
       </c>
       <c r="D71" s="2">
         <v>0.07</v>
@@ -7766,10 +7766,10 @@
         <v>0.02</v>
       </c>
       <c r="G71" s="1">
-        <v>223637.0</v>
+        <v>405410.0</v>
       </c>
       <c r="H71" s="2">
-        <v>0.28205157309804</v>
+        <v>0.39881715363329</v>
       </c>
       <c r="I71" s="1">
         <v>0</v>
@@ -7816,33 +7816,33 @@
       </c>
       <c r="Z71" s="3"/>
       <c r="AA71" s="1">
-        <v>848396.1</v>
+        <v>646700.1</v>
       </c>
       <c r="AB71" s="1">
-        <v>1087687.1</v>
+        <v>0</v>
       </c>
       <c r="AC71" s="6">
-        <v>239291.0</v>
+        <v>440987.0</v>
       </c>
       <c r="AD71" s="2"/>
       <c r="AE71" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF71" s="2"/>
       <c r="AG71" s="2"/>
       <c r="AH71" s="2"/>
       <c r="AI71" s="7">
-        <v>973165.84</v>
+        <v>1238666.84</v>
       </c>
       <c r="AJ71" s="1">
-        <v>13484881.03</v>
+        <v>16782423.03</v>
       </c>
       <c r="AK71" s="2"/>
       <c r="AL71" s="1">
-        <v>792894.0</v>
+        <v>1016531.0</v>
       </c>
       <c r="AM71" s="1">
-        <v>3964470.0</v>
+        <v>5082655.0</v>
       </c>
       <c r="AN71" s="1">
         <v>0</v>
@@ -7859,7 +7859,7 @@
         <v>82</v>
       </c>
       <c r="C72" s="6">
-        <v>848396.0</v>
+        <v>1087687.0</v>
       </c>
       <c r="D72" s="20">
         <v>0.06</v>
@@ -7871,10 +7871,10 @@
         <v>0.01</v>
       </c>
       <c r="G72" s="6">
-        <v>239291.0</v>
+        <v>440987.0</v>
       </c>
       <c r="H72" s="20">
-        <v>0.28205107049067</v>
+        <v>0.40543557107881</v>
       </c>
       <c r="I72" s="6">
         <v>0</v>
@@ -7935,17 +7935,17 @@
       <c r="AG72" s="20"/>
       <c r="AH72" s="20"/>
       <c r="AI72" s="6">
-        <v>1060736.3</v>
+        <v>1337622.3</v>
       </c>
       <c r="AJ72" s="6">
-        <v>14545617.33</v>
+        <v>18120045.33</v>
       </c>
       <c r="AK72" s="20"/>
       <c r="AL72" s="6">
-        <v>848396.0</v>
+        <v>1087687.0</v>
       </c>
       <c r="AM72" s="6">
-        <v>4241980.0</v>
+        <v>5438435.0</v>
       </c>
       <c r="AN72" s="6">
         <v>0</v>
@@ -8360,7 +8360,7 @@
     <col min="31" max="31" width="21.138" bestFit="true" customWidth="true" style="0"/>
     <col min="32" max="32" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="33" max="33" width="8.141" bestFit="true" customWidth="true" style="0"/>
-    <col min="34" max="34" width="6.998" bestFit="true" customWidth="true" style="0"/>
+    <col min="34" max="34" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="35" max="35" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="36" max="36" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="37" max="37" width="16.425" bestFit="true" customWidth="true" style="0"/>
@@ -11645,17 +11645,17 @@
       </c>
       <c r="Z37" s="3"/>
       <c r="AA37" s="1">
-        <v>1229048.0</v>
+        <v>733678.0</v>
       </c>
       <c r="AB37" s="1">
-        <v>148170.0</v>
+        <v>0</v>
       </c>
       <c r="AC37" s="6">
-        <v>32597.0</v>
+        <v>527967.0</v>
       </c>
       <c r="AD37" s="2"/>
       <c r="AE37" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF37" s="2"/>
       <c r="AG37" s="2">
@@ -11754,17 +11754,17 @@
       </c>
       <c r="Z38" s="3"/>
       <c r="AA38" s="1">
-        <v>1142807.3</v>
+        <v>834273.3</v>
       </c>
       <c r="AB38" s="1">
-        <v>1465137.3</v>
+        <v>0</v>
       </c>
       <c r="AC38" s="6">
-        <v>322330.0</v>
+        <v>630864.0</v>
       </c>
       <c r="AD38" s="2"/>
       <c r="AE38" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF38" s="2"/>
       <c r="AG38" s="2">
@@ -11863,17 +11863,17 @@
       </c>
       <c r="Z39" s="11"/>
       <c r="AA39" s="9">
-        <v>1320417.9</v>
+        <v>945850.9</v>
       </c>
       <c r="AB39" s="9">
-        <v>1692843.9</v>
+        <v>0</v>
       </c>
       <c r="AC39" s="9">
-        <v>372426.0</v>
+        <v>746993.0</v>
       </c>
       <c r="AD39" s="10"/>
       <c r="AE39" s="9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF39" s="10"/>
       <c r="AG39" s="10">
@@ -11972,17 +11972,17 @@
       </c>
       <c r="Z40" s="15"/>
       <c r="AA40" s="13">
-        <v>1517690.0</v>
+        <v>1069777.0</v>
       </c>
       <c r="AB40" s="13">
-        <v>1945757.0</v>
+        <v>0</v>
       </c>
       <c r="AC40" s="13">
-        <v>428067.0</v>
+        <v>875980.0</v>
       </c>
       <c r="AD40" s="14"/>
       <c r="AE40" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF40" s="14"/>
       <c r="AG40" s="14">
@@ -12081,17 +12081,17 @@
       </c>
       <c r="Z41" s="3"/>
       <c r="AA41" s="1">
-        <v>1688650.35</v>
+        <v>1177174.35</v>
       </c>
       <c r="AB41" s="1">
-        <v>2164936.35</v>
+        <v>0</v>
       </c>
       <c r="AC41" s="6">
-        <v>476286.0</v>
+        <v>987762.0</v>
       </c>
       <c r="AD41" s="2"/>
       <c r="AE41" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF41" s="2"/>
       <c r="AG41" s="2">
@@ -12190,17 +12190,17 @@
       </c>
       <c r="Z42" s="3"/>
       <c r="AA42" s="1">
-        <v>1872870.38</v>
+        <v>1292903.38</v>
       </c>
       <c r="AB42" s="1">
-        <v>2401116.38</v>
+        <v>0</v>
       </c>
       <c r="AC42" s="6">
-        <v>528246.0</v>
+        <v>1108213.0</v>
       </c>
       <c r="AD42" s="2"/>
       <c r="AE42" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF42" s="2"/>
       <c r="AG42" s="2">
@@ -12299,17 +12299,17 @@
       </c>
       <c r="Z43" s="3"/>
       <c r="AA43" s="1">
-        <v>2071306.72</v>
+        <v>1417561.72</v>
       </c>
       <c r="AB43" s="1">
-        <v>2655521.72</v>
+        <v>0</v>
       </c>
       <c r="AC43" s="6">
-        <v>584215.0</v>
+        <v>1237960.0</v>
       </c>
       <c r="AD43" s="2"/>
       <c r="AE43" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF43" s="2"/>
       <c r="AG43" s="2">
@@ -12408,17 +12408,17 @@
       </c>
       <c r="Z44" s="3"/>
       <c r="AA44" s="1">
-        <v>2284981.12</v>
+        <v>1551793.12</v>
       </c>
       <c r="AB44" s="1">
-        <v>2929463.12</v>
+        <v>0</v>
       </c>
       <c r="AC44" s="6">
-        <v>644482.0</v>
+        <v>1377670.0</v>
       </c>
       <c r="AD44" s="2"/>
       <c r="AE44" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF44" s="2"/>
       <c r="AG44" s="2">
@@ -12517,17 +12517,17 @@
       </c>
       <c r="Z45" s="3"/>
       <c r="AA45" s="1">
-        <v>2514986.21</v>
+        <v>1696283.21</v>
       </c>
       <c r="AB45" s="1">
-        <v>3224341.21</v>
+        <v>0</v>
       </c>
       <c r="AC45" s="6">
-        <v>709355.0</v>
+        <v>1528058.0</v>
       </c>
       <c r="AD45" s="2"/>
       <c r="AE45" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF45" s="2"/>
       <c r="AG45" s="2">
@@ -12626,17 +12626,17 @@
       </c>
       <c r="Z46" s="3"/>
       <c r="AA46" s="1">
-        <v>2762492.13</v>
+        <v>1851768.13</v>
       </c>
       <c r="AB46" s="1">
-        <v>3541656.13</v>
+        <v>0</v>
       </c>
       <c r="AC46" s="6">
-        <v>779164.0</v>
+        <v>1689888.0</v>
       </c>
       <c r="AD46" s="2"/>
       <c r="AE46" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF46" s="2"/>
       <c r="AG46" s="2">
@@ -12735,17 +12735,17 @@
       </c>
       <c r="Z47" s="3"/>
       <c r="AA47" s="1">
-        <v>3028752.02</v>
+        <v>2019033.02</v>
       </c>
       <c r="AB47" s="1">
-        <v>3883015.02</v>
+        <v>0</v>
       </c>
       <c r="AC47" s="6">
-        <v>854263.0</v>
+        <v>1863982.0</v>
       </c>
       <c r="AD47" s="2"/>
       <c r="AE47" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF47" s="2"/>
       <c r="AG47" s="2">
@@ -12844,17 +12844,17 @@
       </c>
       <c r="Z48" s="3"/>
       <c r="AA48" s="1">
-        <v>3315108.51</v>
+        <v>2198924.51</v>
       </c>
       <c r="AB48" s="1">
-        <v>4250139.51</v>
+        <v>0</v>
       </c>
       <c r="AC48" s="6">
-        <v>935031.0</v>
+        <v>2051215.0</v>
       </c>
       <c r="AD48" s="2"/>
       <c r="AE48" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF48" s="2"/>
       <c r="AG48" s="2">
@@ -12953,17 +12953,17 @@
       </c>
       <c r="Z49" s="3"/>
       <c r="AA49" s="1">
-        <v>3622999.0</v>
+        <v>2392343.0</v>
       </c>
       <c r="AB49" s="1">
-        <v>4644870.0</v>
+        <v>0</v>
       </c>
       <c r="AC49" s="6">
-        <v>1021871.0</v>
+        <v>2252527.0</v>
       </c>
       <c r="AD49" s="2"/>
       <c r="AE49" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF49" s="2"/>
       <c r="AG49" s="2">
@@ -13062,17 +13062,17 @@
       </c>
       <c r="Z50" s="3"/>
       <c r="AA50" s="1">
-        <v>3953956.22</v>
+        <v>2600251.22</v>
       </c>
       <c r="AB50" s="1">
-        <v>5069174.22</v>
+        <v>0</v>
       </c>
       <c r="AC50" s="6">
-        <v>1115218.0</v>
+        <v>2468923.0</v>
       </c>
       <c r="AD50" s="2"/>
       <c r="AE50" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF50" s="2"/>
       <c r="AG50" s="2">
@@ -13171,17 +13171,17 @@
       </c>
       <c r="Z51" s="3"/>
       <c r="AA51" s="1">
-        <v>4309627.28</v>
+        <v>2823685.28</v>
       </c>
       <c r="AB51" s="1">
-        <v>5525163.28</v>
+        <v>0</v>
       </c>
       <c r="AC51" s="6">
-        <v>1215536.0</v>
+        <v>2701478.0</v>
       </c>
       <c r="AD51" s="2"/>
       <c r="AE51" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF51" s="2"/>
       <c r="AG51" s="2">
@@ -13280,17 +13280,17 @@
       </c>
       <c r="Z52" s="3"/>
       <c r="AA52" s="1">
-        <v>4691772.81</v>
+        <v>3063752.81</v>
       </c>
       <c r="AB52" s="1">
-        <v>6015093.81</v>
+        <v>0</v>
       </c>
       <c r="AC52" s="6">
-        <v>1323321.0</v>
+        <v>2951341.0</v>
       </c>
       <c r="AD52" s="2"/>
       <c r="AE52" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF52" s="2"/>
       <c r="AG52" s="2">
@@ -13327,10 +13327,10 @@
         <v>63</v>
       </c>
       <c r="C53" s="16">
-        <v>1198793.0</v>
+        <v>1264959.0</v>
       </c>
       <c r="D53" s="17">
-        <v>0.24</v>
+        <v>0.31</v>
       </c>
       <c r="E53" s="16">
         <v>272352.24</v>
@@ -13339,10 +13339,10 @@
         <v>0.02</v>
       </c>
       <c r="G53" s="16">
-        <v>445411.0</v>
+        <v>481328.0</v>
       </c>
       <c r="H53" s="17">
-        <v>0.37154955025597</v>
+        <v>0.38050877538323</v>
       </c>
       <c r="I53" s="16">
         <v>0</v>
@@ -13389,37 +13389,37 @@
       </c>
       <c r="Z53" s="18"/>
       <c r="AA53" s="16">
-        <v>4769187.73</v>
+        <v>3112384.73</v>
       </c>
       <c r="AB53" s="16">
-        <v>6114342.73</v>
+        <v>0</v>
       </c>
       <c r="AC53" s="16">
-        <v>1345155.0</v>
+        <v>3001958.0</v>
       </c>
       <c r="AD53" s="17"/>
       <c r="AE53" s="16">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF53" s="17"/>
       <c r="AG53" s="17">
-        <v>0.81</v>
+        <v>0.85</v>
       </c>
       <c r="AH53" s="17">
-        <v>0.62</v>
+        <v>0.67</v>
       </c>
       <c r="AI53" s="16">
-        <v>715618.76</v>
+        <v>812033.76</v>
       </c>
       <c r="AJ53" s="16">
-        <v>4772058.57</v>
+        <v>4868473.57</v>
       </c>
       <c r="AK53" s="17"/>
       <c r="AL53" s="16">
-        <v>1198793.0</v>
+        <v>1264959.0</v>
       </c>
       <c r="AM53" s="16">
-        <v>5993965.0</v>
+        <v>6324795.0</v>
       </c>
       <c r="AN53" s="16">
         <v>-300755.0</v>
@@ -13436,10 +13436,10 @@
         <v>64</v>
       </c>
       <c r="C54" s="5">
-        <v>251010.0</v>
+        <v>321808.0</v>
       </c>
       <c r="D54" s="2">
-        <v>0.79</v>
+        <v>0.74</v>
       </c>
       <c r="E54" s="6">
         <v>277799.04</v>
@@ -13448,10 +13448,10 @@
         <v>0.01</v>
       </c>
       <c r="G54" s="1">
-        <v>70798.0</v>
+        <v>109957.0</v>
       </c>
       <c r="H54" s="2">
-        <v>0.28205250786821</v>
+        <v>0.34168510416149</v>
       </c>
       <c r="I54" s="1">
         <v>0</v>
@@ -13498,37 +13498,37 @@
       </c>
       <c r="Z54" s="3"/>
       <c r="AA54" s="1">
-        <v>4834449.45</v>
+        <v>3153382.45</v>
       </c>
       <c r="AB54" s="1">
-        <v>6198012.45</v>
+        <v>0</v>
       </c>
       <c r="AC54" s="6">
-        <v>1363563.0</v>
+        <v>3044630.0</v>
       </c>
       <c r="AD54" s="2"/>
       <c r="AE54" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF54" s="2"/>
       <c r="AG54" s="2">
-        <v>0.21</v>
+        <v>0.27</v>
       </c>
       <c r="AH54" s="2">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="AI54" s="7">
-        <v>153422.96</v>
+        <v>255859.96</v>
       </c>
       <c r="AJ54" s="1">
-        <v>4925481.53</v>
+        <v>5124333.53</v>
       </c>
       <c r="AK54" s="2"/>
       <c r="AL54" s="1">
-        <v>251010.0</v>
+        <v>321808.0</v>
       </c>
       <c r="AM54" s="1">
-        <v>1255050.0</v>
+        <v>1609040.0</v>
       </c>
       <c r="AN54" s="1">
         <v>-321808.0</v>
@@ -13545,10 +13545,10 @@
         <v>65</v>
       </c>
       <c r="C55" s="5">
-        <v>268581.0</v>
+        <v>344334.0</v>
       </c>
       <c r="D55" s="2">
-        <v>0.07</v>
+        <v>0.06</v>
       </c>
       <c r="E55" s="6">
         <v>283354.98</v>
@@ -13557,10 +13557,10 @@
         <v>0.01</v>
       </c>
       <c r="G55" s="1">
-        <v>75753.0</v>
+        <v>118381.0</v>
       </c>
       <c r="H55" s="2">
-        <v>0.28204899080724</v>
+        <v>0.3437970110416</v>
       </c>
       <c r="I55" s="1">
         <v>0</v>
@@ -13607,37 +13607,37 @@
       </c>
       <c r="Z55" s="3"/>
       <c r="AA55" s="1">
-        <v>4885479.46</v>
+        <v>3185438.46</v>
       </c>
       <c r="AB55" s="1">
-        <v>6263435.46</v>
+        <v>0</v>
       </c>
       <c r="AC55" s="6">
-        <v>1377956.0</v>
+        <v>3077997.0</v>
       </c>
       <c r="AD55" s="2"/>
       <c r="AE55" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF55" s="2"/>
       <c r="AG55" s="2">
-        <v>0.33</v>
+        <v>0.42</v>
       </c>
       <c r="AH55" s="2">
-        <v>0.01</v>
+        <v>0.07</v>
       </c>
       <c r="AI55" s="7">
-        <v>178054.02</v>
+        <v>286932.02</v>
       </c>
       <c r="AJ55" s="1">
-        <v>5103535.55</v>
+        <v>5411265.55</v>
       </c>
       <c r="AK55" s="2"/>
       <c r="AL55" s="1">
-        <v>268581.0</v>
+        <v>344334.0</v>
       </c>
       <c r="AM55" s="1">
-        <v>1342905.0</v>
+        <v>1721670.0</v>
       </c>
       <c r="AN55" s="1">
         <v>-344334.0</v>
@@ -13654,7 +13654,7 @@
         <v>66</v>
       </c>
       <c r="C56" s="5">
-        <v>287381.0</v>
+        <v>368437.0</v>
       </c>
       <c r="D56" s="2">
         <v>0.06</v>
@@ -13666,10 +13666,10 @@
         <v>0.02</v>
       </c>
       <c r="G56" s="1">
-        <v>81056.0</v>
+        <v>127396.0</v>
       </c>
       <c r="H56" s="2">
-        <v>0.28205065748953</v>
+        <v>0.34577417577496</v>
       </c>
       <c r="I56" s="1">
         <v>0</v>
@@ -13716,37 +13716,37 @@
       </c>
       <c r="Z56" s="3"/>
       <c r="AA56" s="1">
-        <v>4919964.86</v>
+        <v>3207103.86</v>
       </c>
       <c r="AB56" s="1">
-        <v>6307647.86</v>
+        <v>0</v>
       </c>
       <c r="AC56" s="6">
-        <v>1387683.0</v>
+        <v>3100544.0</v>
       </c>
       <c r="AD56" s="2"/>
       <c r="AE56" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF56" s="2"/>
       <c r="AG56" s="2">
-        <v>0.65</v>
+        <v>0.83</v>
       </c>
       <c r="AH56" s="2">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="AI56" s="7">
-        <v>204683.9</v>
+        <v>320455.9</v>
       </c>
       <c r="AJ56" s="1">
-        <v>5308219.45</v>
+        <v>5731721.45</v>
       </c>
       <c r="AK56" s="2"/>
       <c r="AL56" s="1">
-        <v>287381.0</v>
+        <v>368437.0</v>
       </c>
       <c r="AM56" s="1">
-        <v>1436905.0</v>
+        <v>1842185.0</v>
       </c>
       <c r="AN56" s="1">
         <v>-368437.0</v>
@@ -13763,7 +13763,7 @@
         <v>67</v>
       </c>
       <c r="C57" s="16">
-        <v>307498.0</v>
+        <v>394228.0</v>
       </c>
       <c r="D57" s="17">
         <v>0.07</v>
@@ -13775,10 +13775,10 @@
         <v>0.01</v>
       </c>
       <c r="G57" s="16">
-        <v>86730.0</v>
+        <v>137042.0</v>
       </c>
       <c r="H57" s="17">
-        <v>0.28205061496335</v>
+        <v>0.3476211735341</v>
       </c>
       <c r="I57" s="16">
         <v>0</v>
@@ -13825,37 +13825,37 @@
       </c>
       <c r="Z57" s="18"/>
       <c r="AA57" s="16">
-        <v>4935340.4</v>
+        <v>3216762.4</v>
       </c>
       <c r="AB57" s="16">
-        <v>6327359.4</v>
+        <v>0</v>
       </c>
       <c r="AC57" s="16">
-        <v>1392019.0</v>
+        <v>3110597.0</v>
       </c>
       <c r="AD57" s="17"/>
       <c r="AE57" s="16">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF57" s="17"/>
       <c r="AG57" s="17">
-        <v>6.47</v>
+        <v>8.3</v>
       </c>
       <c r="AH57" s="17">
-        <v>0.26</v>
+        <v>2.09</v>
       </c>
       <c r="AI57" s="16">
-        <v>233463.56</v>
+        <v>356611.56</v>
       </c>
       <c r="AJ57" s="16">
-        <v>5541683.01</v>
+        <v>6088333.01</v>
       </c>
       <c r="AK57" s="17"/>
       <c r="AL57" s="16">
-        <v>307498.0</v>
+        <v>394228.0</v>
       </c>
       <c r="AM57" s="16">
-        <v>1537490.0</v>
+        <v>1971140.0</v>
       </c>
       <c r="AN57" s="16">
         <v>-394228.0</v>
@@ -13872,7 +13872,7 @@
         <v>68</v>
       </c>
       <c r="C58" s="5">
-        <v>329023.0</v>
+        <v>421824.0</v>
       </c>
       <c r="D58" s="2">
         <v>0.07</v>
@@ -13884,10 +13884,10 @@
         <v>0.01</v>
       </c>
       <c r="G58" s="1">
-        <v>92801.0</v>
+        <v>147363.0</v>
       </c>
       <c r="H58" s="2">
-        <v>0.28205019102008</v>
+        <v>0.34934712107419</v>
       </c>
       <c r="I58" s="1">
         <v>0</v>
@@ -13934,33 +13934,33 @@
       </c>
       <c r="Z58" s="3"/>
       <c r="AA58" s="1">
-        <v>4928759.45</v>
+        <v>3212628.45</v>
       </c>
       <c r="AB58" s="1">
-        <v>6318922.45</v>
+        <v>0</v>
       </c>
       <c r="AC58" s="6">
-        <v>1390163.0</v>
+        <v>3106294.0</v>
       </c>
       <c r="AD58" s="2"/>
       <c r="AE58" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF58" s="2"/>
       <c r="AG58" s="2"/>
       <c r="AH58" s="2"/>
       <c r="AI58" s="7">
-        <v>264546.96</v>
+        <v>395586.96</v>
       </c>
       <c r="AJ58" s="1">
-        <v>5806229.97</v>
+        <v>6483919.97</v>
       </c>
       <c r="AK58" s="2"/>
       <c r="AL58" s="1">
-        <v>329023.0</v>
+        <v>421824.0</v>
       </c>
       <c r="AM58" s="1">
-        <v>1645115.0</v>
+        <v>2109120.0</v>
       </c>
       <c r="AN58" s="1">
         <v>-47492.0</v>
@@ -13977,7 +13977,7 @@
         <v>69</v>
       </c>
       <c r="C59" s="5">
-        <v>352055.0</v>
+        <v>451352.0</v>
       </c>
       <c r="D59" s="2">
         <v>0.07</v>
@@ -13989,10 +13989,10 @@
         <v>0.01</v>
       </c>
       <c r="G59" s="1">
-        <v>99297.0</v>
+        <v>158406.0</v>
       </c>
       <c r="H59" s="2">
-        <v>0.28204967973754</v>
+        <v>0.35095889682554</v>
       </c>
       <c r="I59" s="1">
         <v>0</v>
@@ -14039,33 +14039,33 @@
       </c>
       <c r="Z59" s="3"/>
       <c r="AA59" s="1">
-        <v>4897073.9</v>
+        <v>3192722.9</v>
       </c>
       <c r="AB59" s="1">
-        <v>6278299.9</v>
+        <v>0</v>
       </c>
       <c r="AC59" s="6">
-        <v>1381226.0</v>
+        <v>3085577.0</v>
       </c>
       <c r="AD59" s="2"/>
       <c r="AE59" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF59" s="2"/>
       <c r="AG59" s="2"/>
       <c r="AH59" s="2"/>
       <c r="AI59" s="7">
-        <v>298101.04</v>
+        <v>437586.04</v>
       </c>
       <c r="AJ59" s="1">
-        <v>6104331.01</v>
+        <v>6921506.01</v>
       </c>
       <c r="AK59" s="2"/>
       <c r="AL59" s="1">
-        <v>352055.0</v>
+        <v>451352.0</v>
       </c>
       <c r="AM59" s="1">
-        <v>1760275.0</v>
+        <v>2256760.0</v>
       </c>
       <c r="AN59" s="1">
         <v>0</v>
@@ -14082,7 +14082,7 @@
         <v>70</v>
       </c>
       <c r="C60" s="5">
-        <v>376698.0</v>
+        <v>482946.0</v>
       </c>
       <c r="D60" s="2">
         <v>0.06</v>
@@ -14094,10 +14094,10 @@
         <v>0.02</v>
       </c>
       <c r="G60" s="1">
-        <v>106248.0</v>
+        <v>170223.0</v>
       </c>
       <c r="H60" s="2">
-        <v>0.28205087364414</v>
+        <v>0.35246797778634</v>
       </c>
       <c r="I60" s="1">
         <v>0</v>
@@ -14144,33 +14144,33 @@
       </c>
       <c r="Z60" s="3"/>
       <c r="AA60" s="1">
-        <v>4836802.78</v>
+        <v>3154860.78</v>
       </c>
       <c r="AB60" s="1">
-        <v>6201028.78</v>
+        <v>0</v>
       </c>
       <c r="AC60" s="6">
-        <v>1364226.0</v>
+        <v>3046168.0</v>
       </c>
       <c r="AD60" s="2"/>
       <c r="AE60" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF60" s="2"/>
       <c r="AG60" s="2"/>
       <c r="AH60" s="2"/>
       <c r="AI60" s="7">
-        <v>334301.76</v>
+        <v>482822.76</v>
       </c>
       <c r="AJ60" s="1">
-        <v>6438632.77</v>
+        <v>7404328.77</v>
       </c>
       <c r="AK60" s="2"/>
       <c r="AL60" s="1">
-        <v>376698.0</v>
+        <v>482946.0</v>
       </c>
       <c r="AM60" s="1">
-        <v>1883490.0</v>
+        <v>2414730.0</v>
       </c>
       <c r="AN60" s="1">
         <v>0</v>
@@ -14187,10 +14187,10 @@
         <v>71</v>
       </c>
       <c r="C61" s="5">
-        <v>403067.0</v>
+        <v>516752.0</v>
       </c>
       <c r="D61" s="2">
-        <v>0.07</v>
+        <v>0.06</v>
       </c>
       <c r="E61" s="6">
         <v>319102.92</v>
@@ -14199,10 +14199,10 @@
         <v>0.01</v>
       </c>
       <c r="G61" s="1">
-        <v>113685.0</v>
+        <v>182866.0</v>
       </c>
       <c r="H61" s="2">
-        <v>0.28204988252573</v>
+        <v>0.3538757469734</v>
       </c>
       <c r="I61" s="1">
         <v>0</v>
@@ -14249,33 +14249,33 @@
       </c>
       <c r="Z61" s="3"/>
       <c r="AA61" s="1">
-        <v>4744097.39</v>
+        <v>3096622.39</v>
       </c>
       <c r="AB61" s="1">
-        <v>6082176.39</v>
+        <v>0</v>
       </c>
       <c r="AC61" s="6">
-        <v>1338079.0</v>
+        <v>2985554.0</v>
       </c>
       <c r="AD61" s="2"/>
       <c r="AE61" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF61" s="2"/>
       <c r="AG61" s="2"/>
       <c r="AH61" s="2"/>
       <c r="AI61" s="7">
-        <v>373346.08</v>
+        <v>531535.08</v>
       </c>
       <c r="AJ61" s="1">
-        <v>6811978.85</v>
+        <v>7935863.85</v>
       </c>
       <c r="AK61" s="2"/>
       <c r="AL61" s="1">
-        <v>403067.0</v>
+        <v>516752.0</v>
       </c>
       <c r="AM61" s="1">
-        <v>2015335.0</v>
+        <v>2583760.0</v>
       </c>
       <c r="AN61" s="1">
         <v>0</v>
@@ -14292,10 +14292,10 @@
         <v>72</v>
       </c>
       <c r="C62" s="5">
-        <v>431281.0</v>
+        <v>552925.0</v>
       </c>
       <c r="D62" s="2">
-        <v>0.06</v>
+        <v>0.07</v>
       </c>
       <c r="E62" s="6">
         <v>325485.06</v>
@@ -14304,10 +14304,10 @@
         <v>0.02</v>
       </c>
       <c r="G62" s="1">
-        <v>121644.0</v>
+        <v>196395.0</v>
       </c>
       <c r="H62" s="2">
-        <v>0.28205276838071</v>
+        <v>0.35519283808835</v>
       </c>
       <c r="I62" s="1">
         <v>0</v>
@@ -14354,33 +14354,33 @@
       </c>
       <c r="Z62" s="3"/>
       <c r="AA62" s="1">
-        <v>4614712.57</v>
+        <v>3015342.57</v>
       </c>
       <c r="AB62" s="1">
-        <v>5916298.57</v>
+        <v>0</v>
       </c>
       <c r="AC62" s="6">
-        <v>1301586.0</v>
+        <v>2900956.0</v>
       </c>
       <c r="AD62" s="2"/>
       <c r="AE62" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF62" s="2"/>
       <c r="AG62" s="2"/>
       <c r="AH62" s="2"/>
       <c r="AI62" s="7">
-        <v>415432.94</v>
+        <v>583969.94</v>
       </c>
       <c r="AJ62" s="1">
-        <v>7227411.79</v>
+        <v>8519833.79</v>
       </c>
       <c r="AK62" s="2"/>
       <c r="AL62" s="1">
-        <v>431281.0</v>
+        <v>552925.0</v>
       </c>
       <c r="AM62" s="1">
-        <v>2156405.0</v>
+        <v>2764625.0</v>
       </c>
       <c r="AN62" s="1">
         <v>0</v>
@@ -14397,7 +14397,7 @@
         <v>73</v>
       </c>
       <c r="C63" s="5">
-        <v>461471.0</v>
+        <v>591630.0</v>
       </c>
       <c r="D63" s="2">
         <v>0.07</v>
@@ -14409,10 +14409,10 @@
         <v>0.01</v>
       </c>
       <c r="G63" s="1">
-        <v>130159.0</v>
+        <v>210871.0</v>
       </c>
       <c r="H63" s="2">
-        <v>0.28205239332482</v>
+        <v>0.356423778375</v>
       </c>
       <c r="I63" s="1">
         <v>0</v>
@@ -14459,33 +14459,33 @@
       </c>
       <c r="Z63" s="3"/>
       <c r="AA63" s="1">
-        <v>4443968.83</v>
+        <v>2908079.83</v>
       </c>
       <c r="AB63" s="1">
-        <v>5697395.83</v>
+        <v>0</v>
       </c>
       <c r="AC63" s="6">
-        <v>1253427.0</v>
+        <v>2789316.0</v>
       </c>
       <c r="AD63" s="2"/>
       <c r="AE63" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF63" s="2"/>
       <c r="AG63" s="2"/>
       <c r="AH63" s="2"/>
       <c r="AI63" s="7">
-        <v>460788.3</v>
+        <v>640394.3</v>
       </c>
       <c r="AJ63" s="1">
-        <v>7688200.09</v>
+        <v>9160228.09</v>
       </c>
       <c r="AK63" s="2"/>
       <c r="AL63" s="1">
-        <v>461471.0</v>
+        <v>591630.0</v>
       </c>
       <c r="AM63" s="1">
-        <v>2307355.0</v>
+        <v>2958150.0</v>
       </c>
       <c r="AN63" s="1">
         <v>0</v>
@@ -14502,10 +14502,10 @@
         <v>74</v>
       </c>
       <c r="C64" s="5">
-        <v>493774.0</v>
+        <v>633044.0</v>
       </c>
       <c r="D64" s="2">
-        <v>0.07</v>
+        <v>0.06</v>
       </c>
       <c r="E64" s="6">
         <v>338634.9</v>
@@ -14514,10 +14514,10 @@
         <v>0.02</v>
       </c>
       <c r="G64" s="1">
-        <v>139270.0</v>
+        <v>226360.0</v>
       </c>
       <c r="H64" s="2">
-        <v>0.28205211290995</v>
+        <v>0.35757388112043</v>
       </c>
       <c r="I64" s="1">
         <v>0</v>
@@ -14564,33 +14564,33 @@
       </c>
       <c r="Z64" s="3"/>
       <c r="AA64" s="1">
-        <v>4226708.64</v>
+        <v>2771595.64</v>
       </c>
       <c r="AB64" s="1">
-        <v>5418856.64</v>
+        <v>0</v>
       </c>
       <c r="AC64" s="6">
-        <v>1192148.0</v>
+        <v>2647261.0</v>
       </c>
       <c r="AD64" s="2"/>
       <c r="AE64" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF64" s="2"/>
       <c r="AG64" s="2"/>
       <c r="AH64" s="2"/>
       <c r="AI64" s="7">
-        <v>509643.1</v>
+        <v>701093.1</v>
       </c>
       <c r="AJ64" s="1">
-        <v>8197843.19</v>
+        <v>9861321.19</v>
       </c>
       <c r="AK64" s="2"/>
       <c r="AL64" s="1">
-        <v>493774.0</v>
+        <v>633044.0</v>
       </c>
       <c r="AM64" s="1">
-        <v>2468870.0</v>
+        <v>3165220.0</v>
       </c>
       <c r="AN64" s="1">
         <v>0</v>
@@ -14607,7 +14607,7 @@
         <v>75</v>
       </c>
       <c r="C65" s="5">
-        <v>528338.0</v>
+        <v>677357.0</v>
       </c>
       <c r="D65" s="2">
         <v>0.06</v>
@@ -14619,10 +14619,10 @@
         <v>0.02</v>
       </c>
       <c r="G65" s="1">
-        <v>149019.0</v>
+        <v>243640.0</v>
       </c>
       <c r="H65" s="2">
-        <v>0.28205239827535</v>
+        <v>0.35969215642564</v>
       </c>
       <c r="I65" s="1">
         <v>0</v>
@@ -14669,33 +14669,33 @@
       </c>
       <c r="Z65" s="3"/>
       <c r="AA65" s="1">
-        <v>3957256.0</v>
+        <v>2602325.0</v>
       </c>
       <c r="AB65" s="1">
-        <v>5073405.0</v>
+        <v>0</v>
       </c>
       <c r="AC65" s="6">
-        <v>1116149.0</v>
+        <v>2471080.0</v>
       </c>
       <c r="AD65" s="2"/>
       <c r="AE65" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF65" s="2"/>
       <c r="AG65" s="2"/>
       <c r="AH65" s="2"/>
       <c r="AI65" s="7">
-        <v>562249.3</v>
+        <v>765666.3</v>
       </c>
       <c r="AJ65" s="1">
-        <v>8760092.49</v>
+        <v>10626987.49</v>
       </c>
       <c r="AK65" s="2"/>
       <c r="AL65" s="1">
-        <v>528338.0</v>
+        <v>677357.0</v>
       </c>
       <c r="AM65" s="1">
-        <v>2641690.0</v>
+        <v>3386785.0</v>
       </c>
       <c r="AN65" s="1">
         <v>0</v>
@@ -14712,7 +14712,7 @@
         <v>76</v>
       </c>
       <c r="C66" s="5">
-        <v>565322.0</v>
+        <v>724772.0</v>
       </c>
       <c r="D66" s="2">
         <v>0.07</v>
@@ -14724,10 +14724,10 @@
         <v>0.02</v>
       </c>
       <c r="G66" s="1">
-        <v>159450.0</v>
+        <v>265924.0</v>
       </c>
       <c r="H66" s="2">
-        <v>0.28205164490326</v>
+        <v>0.36690711009807</v>
       </c>
       <c r="I66" s="1">
         <v>0</v>
@@ -14774,33 +14774,33 @@
       </c>
       <c r="Z66" s="3"/>
       <c r="AA66" s="1">
-        <v>3629369.31</v>
+        <v>2396344.31</v>
       </c>
       <c r="AB66" s="1">
-        <v>4653037.31</v>
+        <v>0</v>
       </c>
       <c r="AC66" s="6">
-        <v>1023668.0</v>
+        <v>2256693.0</v>
       </c>
       <c r="AD66" s="2"/>
       <c r="AE66" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF66" s="2"/>
       <c r="AG66" s="2"/>
       <c r="AH66" s="2"/>
       <c r="AI66" s="7">
-        <v>618877.84</v>
+        <v>831303.84</v>
       </c>
       <c r="AJ66" s="1">
-        <v>9378970.33</v>
+        <v>11458291.33</v>
       </c>
       <c r="AK66" s="2"/>
       <c r="AL66" s="1">
-        <v>565322.0</v>
+        <v>724772.0</v>
       </c>
       <c r="AM66" s="1">
-        <v>2826610.0</v>
+        <v>3623860.0</v>
       </c>
       <c r="AN66" s="1">
         <v>0</v>
@@ -14817,10 +14817,10 @@
         <v>77</v>
       </c>
       <c r="C67" s="5">
-        <v>604895.0</v>
+        <v>775506.0</v>
       </c>
       <c r="D67" s="2">
-        <v>0.07</v>
+        <v>0.06</v>
       </c>
       <c r="E67" s="6">
         <v>359362.32</v>
@@ -14829,10 +14829,10 @@
         <v>0.01</v>
       </c>
       <c r="G67" s="1">
-        <v>170611.0</v>
+        <v>289769.0</v>
       </c>
       <c r="H67" s="2">
-        <v>0.2820506038238</v>
+        <v>0.37365152558459</v>
       </c>
       <c r="I67" s="1">
         <v>0</v>
@@ -14879,33 +14879,33 @@
       </c>
       <c r="Z67" s="3"/>
       <c r="AA67" s="1">
-        <v>3236187.17</v>
+        <v>2149345.17</v>
       </c>
       <c r="AB67" s="1">
-        <v>4148958.17</v>
+        <v>0</v>
       </c>
       <c r="AC67" s="6">
-        <v>912771.0</v>
+        <v>1999613.0</v>
       </c>
       <c r="AD67" s="2"/>
       <c r="AE67" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF67" s="2"/>
       <c r="AG67" s="2"/>
       <c r="AH67" s="2"/>
       <c r="AI67" s="7">
-        <v>679816.68</v>
+        <v>901880.68</v>
       </c>
       <c r="AJ67" s="1">
-        <v>10058787.01</v>
+        <v>12360172.01</v>
       </c>
       <c r="AK67" s="2"/>
       <c r="AL67" s="1">
-        <v>604895.0</v>
+        <v>775506.0</v>
       </c>
       <c r="AM67" s="1">
-        <v>3024475.0</v>
+        <v>3877530.0</v>
       </c>
       <c r="AN67" s="1">
         <v>0</v>
@@ -14922,7 +14922,7 @@
         <v>78</v>
       </c>
       <c r="C68" s="5">
-        <v>647238.0</v>
+        <v>829792.0</v>
       </c>
       <c r="D68" s="2">
         <v>0.07</v>
@@ -14934,10 +14934,10 @@
         <v>0.01</v>
       </c>
       <c r="G68" s="1">
-        <v>182554.0</v>
+        <v>315283.0</v>
       </c>
       <c r="H68" s="2">
-        <v>0.28205080665845</v>
+        <v>0.37995425359608</v>
       </c>
       <c r="I68" s="1">
         <v>0</v>
@@ -14984,33 +14984,33 @@
       </c>
       <c r="Z68" s="3"/>
       <c r="AA68" s="1">
-        <v>2770175.62</v>
+        <v>1856594.62</v>
       </c>
       <c r="AB68" s="1">
-        <v>3551507.62</v>
+        <v>0</v>
       </c>
       <c r="AC68" s="6">
-        <v>781332.0</v>
+        <v>1694913.0</v>
       </c>
       <c r="AD68" s="2"/>
       <c r="AE68" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF68" s="2"/>
       <c r="AG68" s="2"/>
       <c r="AH68" s="2"/>
       <c r="AI68" s="7">
-        <v>745372.76</v>
+        <v>977751.76</v>
       </c>
       <c r="AJ68" s="1">
-        <v>10804159.77</v>
+        <v>13337923.77</v>
       </c>
       <c r="AK68" s="2"/>
       <c r="AL68" s="1">
-        <v>647238.0</v>
+        <v>829792.0</v>
       </c>
       <c r="AM68" s="1">
-        <v>3236190.0</v>
+        <v>4148960.0</v>
       </c>
       <c r="AN68" s="1">
         <v>0</v>
@@ -15027,7 +15027,7 @@
         <v>79</v>
       </c>
       <c r="C69" s="5">
-        <v>692544.0</v>
+        <v>887877.0</v>
       </c>
       <c r="D69" s="2">
         <v>0.06</v>
@@ -15039,10 +15039,10 @@
         <v>0.01</v>
       </c>
       <c r="G69" s="1">
-        <v>195333.0</v>
+        <v>342583.0</v>
       </c>
       <c r="H69" s="2">
-        <v>0.28205139312448</v>
+        <v>0.38584511142872</v>
       </c>
       <c r="I69" s="1">
         <v>0</v>
@@ -15089,33 +15089,33 @@
       </c>
       <c r="Z69" s="3"/>
       <c r="AA69" s="1">
-        <v>2223066.17</v>
+        <v>1512897.17</v>
       </c>
       <c r="AB69" s="1">
-        <v>2850085.17</v>
+        <v>0</v>
       </c>
       <c r="AC69" s="6">
-        <v>627019.0</v>
+        <v>1337188.0</v>
       </c>
       <c r="AD69" s="2"/>
       <c r="AE69" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF69" s="2"/>
       <c r="AG69" s="2"/>
       <c r="AH69" s="2"/>
       <c r="AI69" s="7">
-        <v>815875.02</v>
+        <v>1059291.02</v>
       </c>
       <c r="AJ69" s="1">
-        <v>11620034.79</v>
+        <v>14397214.79</v>
       </c>
       <c r="AK69" s="2"/>
       <c r="AL69" s="1">
-        <v>692544.0</v>
+        <v>887877.0</v>
       </c>
       <c r="AM69" s="1">
-        <v>3462720.0</v>
+        <v>4439385.0</v>
       </c>
       <c r="AN69" s="1">
         <v>0</v>
@@ -15132,7 +15132,7 @@
         <v>80</v>
       </c>
       <c r="C70" s="5">
-        <v>741022.0</v>
+        <v>950028.0</v>
       </c>
       <c r="D70" s="2">
         <v>0.06</v>
@@ -15144,10 +15144,10 @@
         <v>0.02</v>
       </c>
       <c r="G70" s="1">
-        <v>209006.0</v>
+        <v>372157.0</v>
       </c>
       <c r="H70" s="2">
-        <v>0.28205100523331</v>
+        <v>0.39173266472146</v>
       </c>
       <c r="I70" s="1">
         <v>0</v>
@@ -15194,33 +15194,33 @@
       </c>
       <c r="Z70" s="3"/>
       <c r="AA70" s="1">
-        <v>1585787.99</v>
+        <v>1112555.99</v>
       </c>
       <c r="AB70" s="1">
-        <v>2033060.99</v>
+        <v>0</v>
       </c>
       <c r="AC70" s="6">
-        <v>447273.0</v>
+        <v>920505.0</v>
       </c>
       <c r="AD70" s="2"/>
       <c r="AE70" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF70" s="2"/>
       <c r="AG70" s="2"/>
       <c r="AH70" s="2"/>
       <c r="AI70" s="7">
-        <v>891680.4</v>
+        <v>1146541.4</v>
       </c>
       <c r="AJ70" s="1">
-        <v>12511715.19</v>
+        <v>15543756.19</v>
       </c>
       <c r="AK70" s="2"/>
       <c r="AL70" s="1">
-        <v>741022.0</v>
+        <v>950028.0</v>
       </c>
       <c r="AM70" s="1">
-        <v>3705110.0</v>
+        <v>4750140.0</v>
       </c>
       <c r="AN70" s="1">
         <v>0</v>
@@ -15237,7 +15237,7 @@
         <v>81</v>
       </c>
       <c r="C71" s="5">
-        <v>792894.0</v>
+        <v>1016531.0</v>
       </c>
       <c r="D71" s="2">
         <v>0.07</v>
@@ -15249,10 +15249,10 @@
         <v>0.02</v>
       </c>
       <c r="G71" s="1">
-        <v>223637.0</v>
+        <v>405410.0</v>
       </c>
       <c r="H71" s="2">
-        <v>0.28205157309804</v>
+        <v>0.39881715363329</v>
       </c>
       <c r="I71" s="1">
         <v>0</v>
@@ -15299,33 +15299,33 @@
       </c>
       <c r="Z71" s="3"/>
       <c r="AA71" s="1">
-        <v>848396.1</v>
+        <v>646700.1</v>
       </c>
       <c r="AB71" s="1">
-        <v>1087687.1</v>
+        <v>0</v>
       </c>
       <c r="AC71" s="6">
-        <v>239291.0</v>
+        <v>440987.0</v>
       </c>
       <c r="AD71" s="2"/>
       <c r="AE71" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF71" s="2"/>
       <c r="AG71" s="2"/>
       <c r="AH71" s="2"/>
       <c r="AI71" s="7">
-        <v>973165.84</v>
+        <v>1238666.84</v>
       </c>
       <c r="AJ71" s="1">
-        <v>13484881.03</v>
+        <v>16782423.03</v>
       </c>
       <c r="AK71" s="2"/>
       <c r="AL71" s="1">
-        <v>792894.0</v>
+        <v>1016531.0</v>
       </c>
       <c r="AM71" s="1">
-        <v>3964470.0</v>
+        <v>5082655.0</v>
       </c>
       <c r="AN71" s="1">
         <v>0</v>
@@ -15342,7 +15342,7 @@
         <v>82</v>
       </c>
       <c r="C72" s="6">
-        <v>848396.0</v>
+        <v>1087687.0</v>
       </c>
       <c r="D72" s="20">
         <v>0.06</v>
@@ -15354,10 +15354,10 @@
         <v>0.01</v>
       </c>
       <c r="G72" s="6">
-        <v>239291.0</v>
+        <v>440987.0</v>
       </c>
       <c r="H72" s="20">
-        <v>0.28205107049067</v>
+        <v>0.40543557107881</v>
       </c>
       <c r="I72" s="6">
         <v>0</v>
@@ -15418,17 +15418,17 @@
       <c r="AG72" s="20"/>
       <c r="AH72" s="20"/>
       <c r="AI72" s="6">
-        <v>1060736.3</v>
+        <v>1337622.3</v>
       </c>
       <c r="AJ72" s="6">
-        <v>14545617.33</v>
+        <v>18120045.33</v>
       </c>
       <c r="AK72" s="20"/>
       <c r="AL72" s="6">
-        <v>848396.0</v>
+        <v>1087687.0</v>
       </c>
       <c r="AM72" s="6">
-        <v>4241980.0</v>
+        <v>5438435.0</v>
       </c>
       <c r="AN72" s="6">
         <v>0</v>
@@ -25948,7 +25948,7 @@
     <col min="4" max="4" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="6.998" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="9.283" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="13.997" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="9.283" bestFit="true" customWidth="true" style="0"/>
@@ -28380,19 +28380,17 @@
       <c r="Y37" s="6"/>
       <c r="Z37" s="3"/>
       <c r="AA37" s="1">
-        <v>1229048.0</v>
+        <v>733678.0</v>
       </c>
       <c r="AB37" s="1">
-        <v>148170.0</v>
+        <v>0</v>
       </c>
       <c r="AC37" s="6">
-        <v>32597.0</v>
-      </c>
-      <c r="AD37" s="2">
-        <v>0.22</v>
-      </c>
+        <v>527967.0</v>
+      </c>
+      <c r="AD37" s="2"/>
       <c r="AE37" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF37" s="2"/>
       <c r="AG37" s="2"/>
@@ -28467,19 +28465,17 @@
       <c r="Y38" s="6"/>
       <c r="Z38" s="3"/>
       <c r="AA38" s="1">
-        <v>1142807.3</v>
+        <v>834273.3</v>
       </c>
       <c r="AB38" s="1">
-        <v>1465137.3</v>
+        <v>0</v>
       </c>
       <c r="AC38" s="6">
-        <v>322330.0</v>
-      </c>
-      <c r="AD38" s="2">
-        <v>0.22</v>
-      </c>
+        <v>630864.0</v>
+      </c>
+      <c r="AD38" s="2"/>
       <c r="AE38" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF38" s="2"/>
       <c r="AG38" s="2"/>
@@ -28554,19 +28550,17 @@
       <c r="Y39" s="9"/>
       <c r="Z39" s="11"/>
       <c r="AA39" s="9">
-        <v>1320417.9</v>
+        <v>945850.9</v>
       </c>
       <c r="AB39" s="9">
-        <v>1692843.9</v>
+        <v>0</v>
       </c>
       <c r="AC39" s="9">
-        <v>372426.0</v>
-      </c>
-      <c r="AD39" s="10">
-        <v>0.22</v>
-      </c>
+        <v>746993.0</v>
+      </c>
+      <c r="AD39" s="10"/>
       <c r="AE39" s="9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF39" s="10"/>
       <c r="AG39" s="10"/>
@@ -28643,19 +28637,17 @@
       <c r="Y40" s="13"/>
       <c r="Z40" s="15"/>
       <c r="AA40" s="13">
-        <v>1517690.0</v>
+        <v>1069777.0</v>
       </c>
       <c r="AB40" s="13">
-        <v>1945757.0</v>
+        <v>0</v>
       </c>
       <c r="AC40" s="13">
-        <v>428067.0</v>
-      </c>
-      <c r="AD40" s="14">
-        <v>0.22</v>
-      </c>
+        <v>875980.0</v>
+      </c>
+      <c r="AD40" s="14"/>
       <c r="AE40" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF40" s="14"/>
       <c r="AG40" s="14"/>
@@ -28732,19 +28724,17 @@
       <c r="Y41" s="6"/>
       <c r="Z41" s="3"/>
       <c r="AA41" s="1">
-        <v>1688650.35</v>
+        <v>1177174.35</v>
       </c>
       <c r="AB41" s="1">
-        <v>2164936.35</v>
+        <v>0</v>
       </c>
       <c r="AC41" s="6">
-        <v>476286.0</v>
-      </c>
-      <c r="AD41" s="2">
-        <v>0.22</v>
-      </c>
+        <v>987762.0</v>
+      </c>
+      <c r="AD41" s="2"/>
       <c r="AE41" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF41" s="2"/>
       <c r="AG41" s="2"/>
@@ -28821,19 +28811,17 @@
       <c r="Y42" s="6"/>
       <c r="Z42" s="3"/>
       <c r="AA42" s="1">
-        <v>1872870.38</v>
+        <v>1292903.38</v>
       </c>
       <c r="AB42" s="1">
-        <v>2401116.38</v>
+        <v>0</v>
       </c>
       <c r="AC42" s="6">
-        <v>528246.0</v>
-      </c>
-      <c r="AD42" s="2">
-        <v>0.22</v>
-      </c>
+        <v>1108213.0</v>
+      </c>
+      <c r="AD42" s="2"/>
       <c r="AE42" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF42" s="2"/>
       <c r="AG42" s="2"/>
@@ -28910,19 +28898,17 @@
       <c r="Y43" s="6"/>
       <c r="Z43" s="3"/>
       <c r="AA43" s="1">
-        <v>2071306.72</v>
+        <v>1417561.72</v>
       </c>
       <c r="AB43" s="1">
-        <v>2655521.72</v>
+        <v>0</v>
       </c>
       <c r="AC43" s="6">
-        <v>584215.0</v>
-      </c>
-      <c r="AD43" s="2">
-        <v>0.22</v>
-      </c>
+        <v>1237960.0</v>
+      </c>
+      <c r="AD43" s="2"/>
       <c r="AE43" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF43" s="2"/>
       <c r="AG43" s="2"/>
@@ -28999,19 +28985,17 @@
       <c r="Y44" s="6"/>
       <c r="Z44" s="3"/>
       <c r="AA44" s="1">
-        <v>2284981.12</v>
+        <v>1551793.12</v>
       </c>
       <c r="AB44" s="1">
-        <v>2929463.12</v>
+        <v>0</v>
       </c>
       <c r="AC44" s="6">
-        <v>644482.0</v>
-      </c>
-      <c r="AD44" s="2">
-        <v>0.22</v>
-      </c>
+        <v>1377670.0</v>
+      </c>
+      <c r="AD44" s="2"/>
       <c r="AE44" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF44" s="2"/>
       <c r="AG44" s="2"/>
@@ -29088,19 +29072,17 @@
       <c r="Y45" s="6"/>
       <c r="Z45" s="3"/>
       <c r="AA45" s="1">
-        <v>2514986.21</v>
+        <v>1696283.21</v>
       </c>
       <c r="AB45" s="1">
-        <v>3224341.21</v>
+        <v>0</v>
       </c>
       <c r="AC45" s="6">
-        <v>709355.0</v>
-      </c>
-      <c r="AD45" s="2">
-        <v>0.22</v>
-      </c>
+        <v>1528058.0</v>
+      </c>
+      <c r="AD45" s="2"/>
       <c r="AE45" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF45" s="2"/>
       <c r="AG45" s="2"/>
@@ -29177,19 +29159,17 @@
       <c r="Y46" s="6"/>
       <c r="Z46" s="3"/>
       <c r="AA46" s="1">
-        <v>2762492.13</v>
+        <v>1851768.13</v>
       </c>
       <c r="AB46" s="1">
-        <v>3541656.13</v>
+        <v>0</v>
       </c>
       <c r="AC46" s="6">
-        <v>779164.0</v>
-      </c>
-      <c r="AD46" s="2">
-        <v>0.22</v>
-      </c>
+        <v>1689888.0</v>
+      </c>
+      <c r="AD46" s="2"/>
       <c r="AE46" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF46" s="2"/>
       <c r="AG46" s="2"/>
@@ -29266,19 +29246,17 @@
       <c r="Y47" s="6"/>
       <c r="Z47" s="3"/>
       <c r="AA47" s="1">
-        <v>3028752.02</v>
+        <v>2019033.02</v>
       </c>
       <c r="AB47" s="1">
-        <v>3883015.02</v>
+        <v>0</v>
       </c>
       <c r="AC47" s="6">
-        <v>854263.0</v>
-      </c>
-      <c r="AD47" s="2">
-        <v>0.22</v>
-      </c>
+        <v>1863982.0</v>
+      </c>
+      <c r="AD47" s="2"/>
       <c r="AE47" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF47" s="2"/>
       <c r="AG47" s="2"/>
@@ -29355,19 +29333,17 @@
       <c r="Y48" s="6"/>
       <c r="Z48" s="3"/>
       <c r="AA48" s="1">
-        <v>3315108.51</v>
+        <v>2198924.51</v>
       </c>
       <c r="AB48" s="1">
-        <v>4250139.51</v>
+        <v>0</v>
       </c>
       <c r="AC48" s="6">
-        <v>935031.0</v>
-      </c>
-      <c r="AD48" s="2">
-        <v>0.22</v>
-      </c>
+        <v>2051215.0</v>
+      </c>
+      <c r="AD48" s="2"/>
       <c r="AE48" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF48" s="2"/>
       <c r="AG48" s="2"/>
@@ -29444,19 +29420,17 @@
       <c r="Y49" s="6"/>
       <c r="Z49" s="3"/>
       <c r="AA49" s="1">
-        <v>3622999.0</v>
+        <v>2392343.0</v>
       </c>
       <c r="AB49" s="1">
-        <v>4644870.0</v>
+        <v>0</v>
       </c>
       <c r="AC49" s="6">
-        <v>1021871.0</v>
-      </c>
-      <c r="AD49" s="2">
-        <v>0.22</v>
-      </c>
+        <v>2252527.0</v>
+      </c>
+      <c r="AD49" s="2"/>
       <c r="AE49" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF49" s="2"/>
       <c r="AG49" s="2"/>
@@ -29533,19 +29507,17 @@
       <c r="Y50" s="6"/>
       <c r="Z50" s="3"/>
       <c r="AA50" s="1">
-        <v>3953956.22</v>
+        <v>2600251.22</v>
       </c>
       <c r="AB50" s="1">
-        <v>5069174.22</v>
+        <v>0</v>
       </c>
       <c r="AC50" s="6">
-        <v>1115218.0</v>
-      </c>
-      <c r="AD50" s="2">
-        <v>0.22</v>
-      </c>
+        <v>2468923.0</v>
+      </c>
+      <c r="AD50" s="2"/>
       <c r="AE50" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF50" s="2"/>
       <c r="AG50" s="2"/>
@@ -29622,19 +29594,17 @@
       <c r="Y51" s="6"/>
       <c r="Z51" s="3"/>
       <c r="AA51" s="1">
-        <v>4309627.28</v>
+        <v>2823685.28</v>
       </c>
       <c r="AB51" s="1">
-        <v>5525163.28</v>
+        <v>0</v>
       </c>
       <c r="AC51" s="6">
-        <v>1215536.0</v>
-      </c>
-      <c r="AD51" s="2">
-        <v>0.22</v>
-      </c>
+        <v>2701478.0</v>
+      </c>
+      <c r="AD51" s="2"/>
       <c r="AE51" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF51" s="2"/>
       <c r="AG51" s="2"/>
@@ -29711,19 +29681,17 @@
       <c r="Y52" s="6"/>
       <c r="Z52" s="3"/>
       <c r="AA52" s="1">
-        <v>4691772.81</v>
+        <v>3063752.81</v>
       </c>
       <c r="AB52" s="1">
-        <v>6015093.81</v>
+        <v>0</v>
       </c>
       <c r="AC52" s="6">
-        <v>1323321.0</v>
-      </c>
-      <c r="AD52" s="2">
-        <v>0.22</v>
-      </c>
+        <v>2951341.0</v>
+      </c>
+      <c r="AD52" s="2"/>
       <c r="AE52" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF52" s="2"/>
       <c r="AG52" s="2"/>
@@ -29764,11 +29732,9 @@
       <c r="E53" s="16"/>
       <c r="F53" s="17"/>
       <c r="G53" s="16">
-        <v>66166.0</v>
-      </c>
-      <c r="H53" s="17">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="H53" s="17"/>
       <c r="I53" s="16"/>
       <c r="J53" s="17"/>
       <c r="K53" s="16"/>
@@ -29802,28 +29768,26 @@
       <c r="Y53" s="16"/>
       <c r="Z53" s="18"/>
       <c r="AA53" s="16">
-        <v>4769187.73</v>
+        <v>3112384.73</v>
       </c>
       <c r="AB53" s="16">
-        <v>6114342.73</v>
+        <v>0</v>
       </c>
       <c r="AC53" s="16">
-        <v>1345155.0</v>
-      </c>
-      <c r="AD53" s="17">
-        <v>0.22</v>
-      </c>
+        <v>3001958.0</v>
+      </c>
+      <c r="AD53" s="17"/>
       <c r="AE53" s="16">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF53" s="17"/>
       <c r="AG53" s="17"/>
       <c r="AH53" s="17"/>
       <c r="AI53" s="16">
-        <v>-66166.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ53" s="16">
-        <v>-66166.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK53" s="17"/>
       <c r="AL53" s="16">
@@ -29853,11 +29817,9 @@
       <c r="E54" s="6"/>
       <c r="F54" s="2"/>
       <c r="G54" s="1">
-        <v>70798.0</v>
-      </c>
-      <c r="H54" s="2">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="H54" s="2"/>
       <c r="I54" s="1"/>
       <c r="J54" s="2"/>
       <c r="K54" s="1"/>
@@ -29891,28 +29853,26 @@
       <c r="Y54" s="6"/>
       <c r="Z54" s="3"/>
       <c r="AA54" s="1">
-        <v>4834449.45</v>
+        <v>3153382.45</v>
       </c>
       <c r="AB54" s="1">
-        <v>6198012.45</v>
+        <v>0</v>
       </c>
       <c r="AC54" s="6">
-        <v>1363563.0</v>
-      </c>
-      <c r="AD54" s="2">
-        <v>0.22</v>
-      </c>
+        <v>3044630.0</v>
+      </c>
+      <c r="AD54" s="2"/>
       <c r="AE54" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF54" s="2"/>
       <c r="AG54" s="2"/>
       <c r="AH54" s="2"/>
       <c r="AI54" s="7">
-        <v>-70798.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ54" s="1">
-        <v>-136964.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK54" s="2"/>
       <c r="AL54" s="1">
@@ -29942,11 +29902,9 @@
       <c r="E55" s="6"/>
       <c r="F55" s="2"/>
       <c r="G55" s="1">
-        <v>75753.0</v>
-      </c>
-      <c r="H55" s="2">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="H55" s="2"/>
       <c r="I55" s="1"/>
       <c r="J55" s="2"/>
       <c r="K55" s="1"/>
@@ -29980,28 +29938,26 @@
       <c r="Y55" s="6"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="1">
-        <v>4885479.46</v>
+        <v>3185438.46</v>
       </c>
       <c r="AB55" s="1">
-        <v>6263435.46</v>
+        <v>0</v>
       </c>
       <c r="AC55" s="6">
-        <v>1377956.0</v>
-      </c>
-      <c r="AD55" s="2">
-        <v>0.22</v>
-      </c>
+        <v>3077997.0</v>
+      </c>
+      <c r="AD55" s="2"/>
       <c r="AE55" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF55" s="2"/>
       <c r="AG55" s="2"/>
       <c r="AH55" s="2"/>
       <c r="AI55" s="7">
-        <v>-75753.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ55" s="1">
-        <v>-212717.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK55" s="2"/>
       <c r="AL55" s="1">
@@ -30031,11 +29987,9 @@
       <c r="E56" s="6"/>
       <c r="F56" s="2"/>
       <c r="G56" s="1">
-        <v>81056.0</v>
-      </c>
-      <c r="H56" s="2">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="H56" s="2"/>
       <c r="I56" s="1"/>
       <c r="J56" s="2"/>
       <c r="K56" s="1"/>
@@ -30069,28 +30023,26 @@
       <c r="Y56" s="6"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="1">
-        <v>4919964.86</v>
+        <v>3207103.86</v>
       </c>
       <c r="AB56" s="1">
-        <v>6307647.86</v>
+        <v>0</v>
       </c>
       <c r="AC56" s="6">
-        <v>1387683.0</v>
-      </c>
-      <c r="AD56" s="2">
-        <v>0.22</v>
-      </c>
+        <v>3100544.0</v>
+      </c>
+      <c r="AD56" s="2"/>
       <c r="AE56" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF56" s="2"/>
       <c r="AG56" s="2"/>
       <c r="AH56" s="2"/>
       <c r="AI56" s="7">
-        <v>-81056.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ56" s="1">
-        <v>-293773.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK56" s="2"/>
       <c r="AL56" s="1">
@@ -30120,11 +30072,9 @@
       <c r="E57" s="16"/>
       <c r="F57" s="17"/>
       <c r="G57" s="16">
-        <v>86730.0</v>
-      </c>
-      <c r="H57" s="17">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="H57" s="17"/>
       <c r="I57" s="16"/>
       <c r="J57" s="17"/>
       <c r="K57" s="16"/>
@@ -30158,28 +30108,26 @@
       <c r="Y57" s="16"/>
       <c r="Z57" s="18"/>
       <c r="AA57" s="16">
-        <v>4935340.4</v>
+        <v>3216762.4</v>
       </c>
       <c r="AB57" s="16">
-        <v>6327359.4</v>
+        <v>0</v>
       </c>
       <c r="AC57" s="16">
-        <v>1392019.0</v>
-      </c>
-      <c r="AD57" s="17">
-        <v>0.22</v>
-      </c>
+        <v>3110597.0</v>
+      </c>
+      <c r="AD57" s="17"/>
       <c r="AE57" s="16">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF57" s="17"/>
       <c r="AG57" s="17"/>
       <c r="AH57" s="17"/>
       <c r="AI57" s="16">
-        <v>-86730.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ57" s="16">
-        <v>-380503.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK57" s="17"/>
       <c r="AL57" s="16">
@@ -30209,11 +30157,9 @@
       <c r="E58" s="6"/>
       <c r="F58" s="2"/>
       <c r="G58" s="1">
-        <v>92801.0</v>
-      </c>
-      <c r="H58" s="2">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="H58" s="2"/>
       <c r="I58" s="1"/>
       <c r="J58" s="2"/>
       <c r="K58" s="1"/>
@@ -30247,28 +30193,26 @@
       <c r="Y58" s="6"/>
       <c r="Z58" s="3"/>
       <c r="AA58" s="1">
-        <v>4928759.45</v>
+        <v>3212628.45</v>
       </c>
       <c r="AB58" s="1">
-        <v>6318922.45</v>
+        <v>0</v>
       </c>
       <c r="AC58" s="6">
-        <v>1390163.0</v>
-      </c>
-      <c r="AD58" s="2">
-        <v>0.22</v>
-      </c>
+        <v>3106294.0</v>
+      </c>
+      <c r="AD58" s="2"/>
       <c r="AE58" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF58" s="2"/>
       <c r="AG58" s="2"/>
       <c r="AH58" s="2"/>
       <c r="AI58" s="7">
-        <v>-92801.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ58" s="1">
-        <v>-473304.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK58" s="2"/>
       <c r="AL58" s="1">
@@ -30298,11 +30242,9 @@
       <c r="E59" s="6"/>
       <c r="F59" s="2"/>
       <c r="G59" s="1">
-        <v>99297.0</v>
-      </c>
-      <c r="H59" s="2">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="H59" s="2"/>
       <c r="I59" s="1"/>
       <c r="J59" s="2"/>
       <c r="K59" s="1"/>
@@ -30336,28 +30278,26 @@
       <c r="Y59" s="6"/>
       <c r="Z59" s="3"/>
       <c r="AA59" s="1">
-        <v>4897073.9</v>
+        <v>3192722.9</v>
       </c>
       <c r="AB59" s="1">
-        <v>6278299.9</v>
+        <v>0</v>
       </c>
       <c r="AC59" s="6">
-        <v>1381226.0</v>
-      </c>
-      <c r="AD59" s="2">
-        <v>0.22</v>
-      </c>
+        <v>3085577.0</v>
+      </c>
+      <c r="AD59" s="2"/>
       <c r="AE59" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF59" s="2"/>
       <c r="AG59" s="2"/>
       <c r="AH59" s="2"/>
       <c r="AI59" s="7">
-        <v>-99297.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ59" s="1">
-        <v>-572601.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK59" s="2"/>
       <c r="AL59" s="1">
@@ -30387,11 +30327,9 @@
       <c r="E60" s="6"/>
       <c r="F60" s="2"/>
       <c r="G60" s="1">
-        <v>106248.0</v>
-      </c>
-      <c r="H60" s="2">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="H60" s="2"/>
       <c r="I60" s="1"/>
       <c r="J60" s="2"/>
       <c r="K60" s="1"/>
@@ -30425,28 +30363,26 @@
       <c r="Y60" s="6"/>
       <c r="Z60" s="3"/>
       <c r="AA60" s="1">
-        <v>4836802.78</v>
+        <v>3154860.78</v>
       </c>
       <c r="AB60" s="1">
-        <v>6201028.78</v>
+        <v>0</v>
       </c>
       <c r="AC60" s="6">
-        <v>1364226.0</v>
-      </c>
-      <c r="AD60" s="2">
-        <v>0.22</v>
-      </c>
+        <v>3046168.0</v>
+      </c>
+      <c r="AD60" s="2"/>
       <c r="AE60" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF60" s="2"/>
       <c r="AG60" s="2"/>
       <c r="AH60" s="2"/>
       <c r="AI60" s="7">
-        <v>-106248.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ60" s="1">
-        <v>-678849.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK60" s="2"/>
       <c r="AL60" s="1">
@@ -30476,11 +30412,9 @@
       <c r="E61" s="6"/>
       <c r="F61" s="2"/>
       <c r="G61" s="1">
-        <v>113685.0</v>
-      </c>
-      <c r="H61" s="2">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="H61" s="2"/>
       <c r="I61" s="1"/>
       <c r="J61" s="2"/>
       <c r="K61" s="1"/>
@@ -30514,28 +30448,26 @@
       <c r="Y61" s="6"/>
       <c r="Z61" s="3"/>
       <c r="AA61" s="1">
-        <v>4744097.39</v>
+        <v>3096622.39</v>
       </c>
       <c r="AB61" s="1">
-        <v>6082176.39</v>
+        <v>0</v>
       </c>
       <c r="AC61" s="6">
-        <v>1338079.0</v>
-      </c>
-      <c r="AD61" s="2">
-        <v>0.22</v>
-      </c>
+        <v>2985554.0</v>
+      </c>
+      <c r="AD61" s="2"/>
       <c r="AE61" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF61" s="2"/>
       <c r="AG61" s="2"/>
       <c r="AH61" s="2"/>
       <c r="AI61" s="7">
-        <v>-113685.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ61" s="1">
-        <v>-792534.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK61" s="2"/>
       <c r="AL61" s="1">
@@ -30565,11 +30497,9 @@
       <c r="E62" s="6"/>
       <c r="F62" s="2"/>
       <c r="G62" s="1">
-        <v>121644.0</v>
-      </c>
-      <c r="H62" s="2">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="H62" s="2"/>
       <c r="I62" s="1"/>
       <c r="J62" s="2"/>
       <c r="K62" s="1"/>
@@ -30603,28 +30533,26 @@
       <c r="Y62" s="6"/>
       <c r="Z62" s="3"/>
       <c r="AA62" s="1">
-        <v>4614712.57</v>
+        <v>3015342.57</v>
       </c>
       <c r="AB62" s="1">
-        <v>5916298.57</v>
+        <v>0</v>
       </c>
       <c r="AC62" s="6">
-        <v>1301586.0</v>
-      </c>
-      <c r="AD62" s="2">
-        <v>0.22</v>
-      </c>
+        <v>2900956.0</v>
+      </c>
+      <c r="AD62" s="2"/>
       <c r="AE62" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF62" s="2"/>
       <c r="AG62" s="2"/>
       <c r="AH62" s="2"/>
       <c r="AI62" s="7">
-        <v>-121644.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ62" s="1">
-        <v>-914178.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK62" s="2"/>
       <c r="AL62" s="1">
@@ -30654,11 +30582,9 @@
       <c r="E63" s="6"/>
       <c r="F63" s="2"/>
       <c r="G63" s="1">
-        <v>130159.0</v>
-      </c>
-      <c r="H63" s="2">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="H63" s="2"/>
       <c r="I63" s="1"/>
       <c r="J63" s="2"/>
       <c r="K63" s="1"/>
@@ -30692,28 +30618,26 @@
       <c r="Y63" s="6"/>
       <c r="Z63" s="3"/>
       <c r="AA63" s="1">
-        <v>4443968.83</v>
+        <v>2908079.83</v>
       </c>
       <c r="AB63" s="1">
-        <v>5697395.83</v>
+        <v>0</v>
       </c>
       <c r="AC63" s="6">
-        <v>1253427.0</v>
-      </c>
-      <c r="AD63" s="2">
-        <v>0.22</v>
-      </c>
+        <v>2789316.0</v>
+      </c>
+      <c r="AD63" s="2"/>
       <c r="AE63" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF63" s="2"/>
       <c r="AG63" s="2"/>
       <c r="AH63" s="2"/>
       <c r="AI63" s="7">
-        <v>-130159.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ63" s="1">
-        <v>-1044337.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK63" s="2"/>
       <c r="AL63" s="1">
@@ -30743,11 +30667,9 @@
       <c r="E64" s="6"/>
       <c r="F64" s="2"/>
       <c r="G64" s="1">
-        <v>139270.0</v>
-      </c>
-      <c r="H64" s="2">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="H64" s="2"/>
       <c r="I64" s="1"/>
       <c r="J64" s="2"/>
       <c r="K64" s="1"/>
@@ -30781,28 +30703,26 @@
       <c r="Y64" s="6"/>
       <c r="Z64" s="3"/>
       <c r="AA64" s="1">
-        <v>4226708.64</v>
+        <v>2771595.64</v>
       </c>
       <c r="AB64" s="1">
-        <v>5418856.64</v>
+        <v>0</v>
       </c>
       <c r="AC64" s="6">
-        <v>1192148.0</v>
-      </c>
-      <c r="AD64" s="2">
-        <v>0.22</v>
-      </c>
+        <v>2647261.0</v>
+      </c>
+      <c r="AD64" s="2"/>
       <c r="AE64" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF64" s="2"/>
       <c r="AG64" s="2"/>
       <c r="AH64" s="2"/>
       <c r="AI64" s="7">
-        <v>-139270.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ64" s="1">
-        <v>-1183607.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK64" s="2"/>
       <c r="AL64" s="1">
@@ -30832,11 +30752,9 @@
       <c r="E65" s="6"/>
       <c r="F65" s="2"/>
       <c r="G65" s="1">
-        <v>149019.0</v>
-      </c>
-      <c r="H65" s="2">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="H65" s="2"/>
       <c r="I65" s="1"/>
       <c r="J65" s="2"/>
       <c r="K65" s="1"/>
@@ -30870,28 +30788,26 @@
       <c r="Y65" s="6"/>
       <c r="Z65" s="3"/>
       <c r="AA65" s="1">
-        <v>3957256.0</v>
+        <v>2602325.0</v>
       </c>
       <c r="AB65" s="1">
-        <v>5073405.0</v>
+        <v>0</v>
       </c>
       <c r="AC65" s="6">
-        <v>1116149.0</v>
-      </c>
-      <c r="AD65" s="2">
-        <v>0.22</v>
-      </c>
+        <v>2471080.0</v>
+      </c>
+      <c r="AD65" s="2"/>
       <c r="AE65" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF65" s="2"/>
       <c r="AG65" s="2"/>
       <c r="AH65" s="2"/>
       <c r="AI65" s="7">
-        <v>-149019.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ65" s="1">
-        <v>-1332626.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK65" s="2"/>
       <c r="AL65" s="1">
@@ -30921,11 +30837,9 @@
       <c r="E66" s="6"/>
       <c r="F66" s="2"/>
       <c r="G66" s="1">
-        <v>159450.0</v>
-      </c>
-      <c r="H66" s="2">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="H66" s="2"/>
       <c r="I66" s="1"/>
       <c r="J66" s="2"/>
       <c r="K66" s="1"/>
@@ -30959,28 +30873,26 @@
       <c r="Y66" s="6"/>
       <c r="Z66" s="3"/>
       <c r="AA66" s="1">
-        <v>3629369.31</v>
+        <v>2396344.31</v>
       </c>
       <c r="AB66" s="1">
-        <v>4653037.31</v>
+        <v>0</v>
       </c>
       <c r="AC66" s="6">
-        <v>1023668.0</v>
-      </c>
-      <c r="AD66" s="2">
-        <v>0.22</v>
-      </c>
+        <v>2256693.0</v>
+      </c>
+      <c r="AD66" s="2"/>
       <c r="AE66" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF66" s="2"/>
       <c r="AG66" s="2"/>
       <c r="AH66" s="2"/>
       <c r="AI66" s="7">
-        <v>-159450.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ66" s="1">
-        <v>-1492076.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK66" s="2"/>
       <c r="AL66" s="1">
@@ -31010,11 +30922,9 @@
       <c r="E67" s="6"/>
       <c r="F67" s="2"/>
       <c r="G67" s="1">
-        <v>170611.0</v>
-      </c>
-      <c r="H67" s="2">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="H67" s="2"/>
       <c r="I67" s="1"/>
       <c r="J67" s="2"/>
       <c r="K67" s="1"/>
@@ -31048,28 +30958,26 @@
       <c r="Y67" s="6"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="1">
-        <v>3236187.17</v>
+        <v>2149345.17</v>
       </c>
       <c r="AB67" s="1">
-        <v>4148958.17</v>
+        <v>0</v>
       </c>
       <c r="AC67" s="6">
-        <v>912771.0</v>
-      </c>
-      <c r="AD67" s="2">
-        <v>0.22</v>
-      </c>
+        <v>1999613.0</v>
+      </c>
+      <c r="AD67" s="2"/>
       <c r="AE67" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF67" s="2"/>
       <c r="AG67" s="2"/>
       <c r="AH67" s="2"/>
       <c r="AI67" s="7">
-        <v>-170611.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ67" s="1">
-        <v>-1662687.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK67" s="2"/>
       <c r="AL67" s="1">
@@ -31099,11 +31007,9 @@
       <c r="E68" s="6"/>
       <c r="F68" s="2"/>
       <c r="G68" s="1">
-        <v>182554.0</v>
-      </c>
-      <c r="H68" s="2">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="H68" s="2"/>
       <c r="I68" s="1"/>
       <c r="J68" s="2"/>
       <c r="K68" s="1"/>
@@ -31137,28 +31043,26 @@
       <c r="Y68" s="6"/>
       <c r="Z68" s="3"/>
       <c r="AA68" s="1">
-        <v>2770175.62</v>
+        <v>1856594.62</v>
       </c>
       <c r="AB68" s="1">
-        <v>3551507.62</v>
+        <v>0</v>
       </c>
       <c r="AC68" s="6">
-        <v>781332.0</v>
-      </c>
-      <c r="AD68" s="2">
-        <v>0.22</v>
-      </c>
+        <v>1694913.0</v>
+      </c>
+      <c r="AD68" s="2"/>
       <c r="AE68" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF68" s="2"/>
       <c r="AG68" s="2"/>
       <c r="AH68" s="2"/>
       <c r="AI68" s="7">
-        <v>-182554.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ68" s="1">
-        <v>-1845241.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK68" s="2"/>
       <c r="AL68" s="1">
@@ -31188,11 +31092,9 @@
       <c r="E69" s="6"/>
       <c r="F69" s="2"/>
       <c r="G69" s="1">
-        <v>195333.0</v>
-      </c>
-      <c r="H69" s="2">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="H69" s="2"/>
       <c r="I69" s="1"/>
       <c r="J69" s="2"/>
       <c r="K69" s="1"/>
@@ -31226,28 +31128,26 @@
       <c r="Y69" s="6"/>
       <c r="Z69" s="3"/>
       <c r="AA69" s="1">
-        <v>2223066.17</v>
+        <v>1512897.17</v>
       </c>
       <c r="AB69" s="1">
-        <v>2850085.17</v>
+        <v>0</v>
       </c>
       <c r="AC69" s="6">
-        <v>627019.0</v>
-      </c>
-      <c r="AD69" s="2">
-        <v>0.22</v>
-      </c>
+        <v>1337188.0</v>
+      </c>
+      <c r="AD69" s="2"/>
       <c r="AE69" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF69" s="2"/>
       <c r="AG69" s="2"/>
       <c r="AH69" s="2"/>
       <c r="AI69" s="7">
-        <v>-195333.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ69" s="1">
-        <v>-2040574.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK69" s="2"/>
       <c r="AL69" s="1">
@@ -31277,11 +31177,9 @@
       <c r="E70" s="6"/>
       <c r="F70" s="2"/>
       <c r="G70" s="1">
-        <v>209006.0</v>
-      </c>
-      <c r="H70" s="2">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="H70" s="2"/>
       <c r="I70" s="1"/>
       <c r="J70" s="2"/>
       <c r="K70" s="1"/>
@@ -31315,28 +31213,26 @@
       <c r="Y70" s="6"/>
       <c r="Z70" s="3"/>
       <c r="AA70" s="1">
-        <v>1585787.99</v>
+        <v>1112555.99</v>
       </c>
       <c r="AB70" s="1">
-        <v>2033060.99</v>
+        <v>0</v>
       </c>
       <c r="AC70" s="6">
-        <v>447273.0</v>
-      </c>
-      <c r="AD70" s="2">
-        <v>0.22</v>
-      </c>
+        <v>920505.0</v>
+      </c>
+      <c r="AD70" s="2"/>
       <c r="AE70" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF70" s="2"/>
       <c r="AG70" s="2"/>
       <c r="AH70" s="2"/>
       <c r="AI70" s="7">
-        <v>-209006.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ70" s="1">
-        <v>-2249580.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK70" s="2"/>
       <c r="AL70" s="1">
@@ -31366,11 +31262,9 @@
       <c r="E71" s="6"/>
       <c r="F71" s="2"/>
       <c r="G71" s="1">
-        <v>223637.0</v>
-      </c>
-      <c r="H71" s="2">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="H71" s="2"/>
       <c r="I71" s="1"/>
       <c r="J71" s="2"/>
       <c r="K71" s="1"/>
@@ -31404,28 +31298,26 @@
       <c r="Y71" s="6"/>
       <c r="Z71" s="3"/>
       <c r="AA71" s="1">
-        <v>848396.1</v>
+        <v>646700.1</v>
       </c>
       <c r="AB71" s="1">
-        <v>1087687.1</v>
+        <v>0</v>
       </c>
       <c r="AC71" s="6">
-        <v>239291.0</v>
-      </c>
-      <c r="AD71" s="2">
-        <v>0.22</v>
-      </c>
+        <v>440987.0</v>
+      </c>
+      <c r="AD71" s="2"/>
       <c r="AE71" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF71" s="2"/>
       <c r="AG71" s="2"/>
       <c r="AH71" s="2"/>
       <c r="AI71" s="7">
-        <v>-223637.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ71" s="1">
-        <v>-2473217.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK71" s="2"/>
       <c r="AL71" s="1">
@@ -31455,11 +31347,9 @@
       <c r="E72" s="6"/>
       <c r="F72" s="20"/>
       <c r="G72" s="6">
-        <v>239291.0</v>
-      </c>
-      <c r="H72" s="20">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="H72" s="20"/>
       <c r="I72" s="6"/>
       <c r="J72" s="20"/>
       <c r="K72" s="6"/>
@@ -31497,10 +31387,10 @@
       <c r="AG72" s="20"/>
       <c r="AH72" s="20"/>
       <c r="AI72" s="6">
-        <v>-239291.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ72" s="6">
-        <v>-2712508.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK72" s="20"/>
       <c r="AL72" s="6">
@@ -31893,11 +31783,11 @@
   <cols>
     <col min="1" max="1" width="10.569" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="8.141" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="9.283" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="8.141" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="6.998" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="13.997" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="238.228" bestFit="true" customWidth="true" style="0"/>
@@ -35421,15 +35311,17 @@
         <v>63</v>
       </c>
       <c r="C53" s="16">
-        <v>234589.0</v>
+        <v>300755.0</v>
       </c>
       <c r="D53" s="17"/>
       <c r="E53" s="16"/>
       <c r="F53" s="17"/>
       <c r="G53" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="H53" s="17"/>
+        <v>102083.0</v>
+      </c>
+      <c r="H53" s="17">
+        <v>0</v>
+      </c>
       <c r="I53" s="16"/>
       <c r="J53" s="17"/>
       <c r="K53" s="16"/>
@@ -35467,17 +35359,17 @@
       <c r="AG53" s="17"/>
       <c r="AH53" s="17"/>
       <c r="AI53" s="16">
-        <v>469178.0</v>
+        <v>499427.0</v>
       </c>
       <c r="AJ53" s="16">
-        <v>469178.0</v>
+        <v>499427.0</v>
       </c>
       <c r="AK53" s="17"/>
       <c r="AL53" s="16">
-        <v>234589.0</v>
+        <v>300755.0</v>
       </c>
       <c r="AM53" s="16">
-        <v>1172945.0</v>
+        <v>1503775.0</v>
       </c>
       <c r="AN53" s="16">
         <v>0</v>
@@ -35496,15 +35388,17 @@
         <v>64</v>
       </c>
       <c r="C54" s="5">
-        <v>251010.0</v>
+        <v>321808.0</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="6"/>
       <c r="F54" s="2"/>
       <c r="G54" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H54" s="2"/>
+        <v>109957.0</v>
+      </c>
+      <c r="H54" s="2">
+        <v>0</v>
+      </c>
       <c r="I54" s="1"/>
       <c r="J54" s="2"/>
       <c r="K54" s="1"/>
@@ -35542,17 +35436,17 @@
       <c r="AG54" s="2"/>
       <c r="AH54" s="2"/>
       <c r="AI54" s="7">
-        <v>502020.0</v>
+        <v>533659.0</v>
       </c>
       <c r="AJ54" s="1">
-        <v>971198.0</v>
+        <v>1033086.0</v>
       </c>
       <c r="AK54" s="2"/>
       <c r="AL54" s="1">
-        <v>251010.0</v>
+        <v>321808.0</v>
       </c>
       <c r="AM54" s="1">
-        <v>1255050.0</v>
+        <v>1609040.0</v>
       </c>
       <c r="AN54" s="1">
         <v>0</v>
@@ -35571,15 +35465,17 @@
         <v>65</v>
       </c>
       <c r="C55" s="5">
-        <v>268581.0</v>
+        <v>344334.0</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="6"/>
       <c r="F55" s="2"/>
       <c r="G55" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H55" s="2"/>
+        <v>118381.0</v>
+      </c>
+      <c r="H55" s="2">
+        <v>0</v>
+      </c>
       <c r="I55" s="1"/>
       <c r="J55" s="2"/>
       <c r="K55" s="1"/>
@@ -35617,17 +35513,17 @@
       <c r="AG55" s="2"/>
       <c r="AH55" s="2"/>
       <c r="AI55" s="7">
-        <v>537162.0</v>
+        <v>570287.0</v>
       </c>
       <c r="AJ55" s="1">
-        <v>1508360.0</v>
+        <v>1603373.0</v>
       </c>
       <c r="AK55" s="2"/>
       <c r="AL55" s="1">
-        <v>268581.0</v>
+        <v>344334.0</v>
       </c>
       <c r="AM55" s="1">
-        <v>1342905.0</v>
+        <v>1721670.0</v>
       </c>
       <c r="AN55" s="1">
         <v>0</v>
@@ -35646,15 +35542,17 @@
         <v>66</v>
       </c>
       <c r="C56" s="5">
-        <v>287381.0</v>
+        <v>368437.0</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="6"/>
       <c r="F56" s="2"/>
       <c r="G56" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H56" s="2"/>
+        <v>127396.0</v>
+      </c>
+      <c r="H56" s="2">
+        <v>0</v>
+      </c>
       <c r="I56" s="1"/>
       <c r="J56" s="2"/>
       <c r="K56" s="1"/>
@@ -35692,17 +35590,17 @@
       <c r="AG56" s="2"/>
       <c r="AH56" s="2"/>
       <c r="AI56" s="7">
-        <v>574762.0</v>
+        <v>609478.0</v>
       </c>
       <c r="AJ56" s="1">
-        <v>2083122.0</v>
+        <v>2212851.0</v>
       </c>
       <c r="AK56" s="2"/>
       <c r="AL56" s="1">
-        <v>287381.0</v>
+        <v>368437.0</v>
       </c>
       <c r="AM56" s="1">
-        <v>1436905.0</v>
+        <v>1842185.0</v>
       </c>
       <c r="AN56" s="1">
         <v>0</v>
@@ -35721,15 +35619,17 @@
         <v>67</v>
       </c>
       <c r="C57" s="16">
-        <v>307498.0</v>
+        <v>394228.0</v>
       </c>
       <c r="D57" s="17"/>
       <c r="E57" s="16"/>
       <c r="F57" s="17"/>
       <c r="G57" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="H57" s="17"/>
+        <v>137042.0</v>
+      </c>
+      <c r="H57" s="17">
+        <v>0</v>
+      </c>
       <c r="I57" s="16"/>
       <c r="J57" s="17"/>
       <c r="K57" s="16"/>
@@ -35767,17 +35667,17 @@
       <c r="AG57" s="17"/>
       <c r="AH57" s="17"/>
       <c r="AI57" s="16">
-        <v>614996.0</v>
+        <v>651414.0</v>
       </c>
       <c r="AJ57" s="16">
-        <v>2698118.0</v>
+        <v>2864265.0</v>
       </c>
       <c r="AK57" s="17"/>
       <c r="AL57" s="16">
-        <v>307498.0</v>
+        <v>394228.0</v>
       </c>
       <c r="AM57" s="16">
-        <v>1537490.0</v>
+        <v>1971140.0</v>
       </c>
       <c r="AN57" s="16">
         <v>0</v>
@@ -35796,15 +35696,17 @@
         <v>68</v>
       </c>
       <c r="C58" s="5">
-        <v>329023.0</v>
+        <v>421824.0</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="6"/>
       <c r="F58" s="2"/>
       <c r="G58" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H58" s="2"/>
+        <v>147363.0</v>
+      </c>
+      <c r="H58" s="2">
+        <v>0</v>
+      </c>
       <c r="I58" s="1"/>
       <c r="J58" s="2"/>
       <c r="K58" s="1"/>
@@ -35842,17 +35744,17 @@
       <c r="AG58" s="2"/>
       <c r="AH58" s="2"/>
       <c r="AI58" s="7">
-        <v>658046.0</v>
+        <v>696285.0</v>
       </c>
       <c r="AJ58" s="1">
-        <v>3356164.0</v>
+        <v>3560550.0</v>
       </c>
       <c r="AK58" s="2"/>
       <c r="AL58" s="1">
-        <v>329023.0</v>
+        <v>421824.0</v>
       </c>
       <c r="AM58" s="1">
-        <v>1645115.0</v>
+        <v>2109120.0</v>
       </c>
       <c r="AN58" s="1">
         <v>0</v>
@@ -35871,15 +35773,17 @@
         <v>69</v>
       </c>
       <c r="C59" s="5">
-        <v>352055.0</v>
+        <v>451352.0</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="6"/>
       <c r="F59" s="2"/>
       <c r="G59" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H59" s="2"/>
+        <v>158406.0</v>
+      </c>
+      <c r="H59" s="2">
+        <v>0</v>
+      </c>
       <c r="I59" s="1"/>
       <c r="J59" s="2"/>
       <c r="K59" s="1"/>
@@ -35917,17 +35821,17 @@
       <c r="AG59" s="2"/>
       <c r="AH59" s="2"/>
       <c r="AI59" s="7">
-        <v>704110.0</v>
+        <v>744298.0</v>
       </c>
       <c r="AJ59" s="1">
-        <v>4060274.0</v>
+        <v>4304848.0</v>
       </c>
       <c r="AK59" s="2"/>
       <c r="AL59" s="1">
-        <v>352055.0</v>
+        <v>451352.0</v>
       </c>
       <c r="AM59" s="1">
-        <v>1760275.0</v>
+        <v>2256760.0</v>
       </c>
       <c r="AN59" s="1">
         <v>0</v>
@@ -35946,15 +35850,17 @@
         <v>70</v>
       </c>
       <c r="C60" s="5">
-        <v>376698.0</v>
+        <v>482946.0</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="6"/>
       <c r="F60" s="2"/>
       <c r="G60" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H60" s="2"/>
+        <v>170223.0</v>
+      </c>
+      <c r="H60" s="2">
+        <v>0</v>
+      </c>
       <c r="I60" s="1"/>
       <c r="J60" s="2"/>
       <c r="K60" s="1"/>
@@ -35992,17 +35898,17 @@
       <c r="AG60" s="2"/>
       <c r="AH60" s="2"/>
       <c r="AI60" s="7">
-        <v>753396.0</v>
+        <v>795669.0</v>
       </c>
       <c r="AJ60" s="1">
-        <v>4813670.0</v>
+        <v>5100517.0</v>
       </c>
       <c r="AK60" s="2"/>
       <c r="AL60" s="1">
-        <v>376698.0</v>
+        <v>482946.0</v>
       </c>
       <c r="AM60" s="1">
-        <v>1883490.0</v>
+        <v>2414730.0</v>
       </c>
       <c r="AN60" s="1">
         <v>0</v>
@@ -36021,15 +35927,17 @@
         <v>71</v>
       </c>
       <c r="C61" s="5">
-        <v>403067.0</v>
+        <v>516752.0</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="6"/>
       <c r="F61" s="2"/>
       <c r="G61" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H61" s="2"/>
+        <v>182866.0</v>
+      </c>
+      <c r="H61" s="2">
+        <v>0</v>
+      </c>
       <c r="I61" s="1"/>
       <c r="J61" s="2"/>
       <c r="K61" s="1"/>
@@ -36067,17 +35975,17 @@
       <c r="AG61" s="2"/>
       <c r="AH61" s="2"/>
       <c r="AI61" s="7">
-        <v>806134.0</v>
+        <v>850638.0</v>
       </c>
       <c r="AJ61" s="1">
-        <v>5619804.0</v>
+        <v>5951155.0</v>
       </c>
       <c r="AK61" s="2"/>
       <c r="AL61" s="1">
-        <v>403067.0</v>
+        <v>516752.0</v>
       </c>
       <c r="AM61" s="1">
-        <v>2015335.0</v>
+        <v>2583760.0</v>
       </c>
       <c r="AN61" s="1">
         <v>0</v>
@@ -36096,15 +36004,17 @@
         <v>72</v>
       </c>
       <c r="C62" s="5">
-        <v>431281.0</v>
+        <v>552925.0</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="6"/>
       <c r="F62" s="2"/>
       <c r="G62" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H62" s="2"/>
+        <v>196395.0</v>
+      </c>
+      <c r="H62" s="2">
+        <v>0</v>
+      </c>
       <c r="I62" s="1"/>
       <c r="J62" s="2"/>
       <c r="K62" s="1"/>
@@ -36142,17 +36052,17 @@
       <c r="AG62" s="2"/>
       <c r="AH62" s="2"/>
       <c r="AI62" s="7">
-        <v>862562.0</v>
+        <v>909455.0</v>
       </c>
       <c r="AJ62" s="1">
-        <v>6482366.0</v>
+        <v>6860610.0</v>
       </c>
       <c r="AK62" s="2"/>
       <c r="AL62" s="1">
-        <v>431281.0</v>
+        <v>552925.0</v>
       </c>
       <c r="AM62" s="1">
-        <v>2156405.0</v>
+        <v>2764625.0</v>
       </c>
       <c r="AN62" s="1">
         <v>0</v>
@@ -36171,15 +36081,17 @@
         <v>73</v>
       </c>
       <c r="C63" s="5">
-        <v>461471.0</v>
+        <v>591630.0</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="6"/>
       <c r="F63" s="2"/>
       <c r="G63" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H63" s="2"/>
+        <v>210871.0</v>
+      </c>
+      <c r="H63" s="2">
+        <v>0</v>
+      </c>
       <c r="I63" s="1"/>
       <c r="J63" s="2"/>
       <c r="K63" s="1"/>
@@ -36217,17 +36129,17 @@
       <c r="AG63" s="2"/>
       <c r="AH63" s="2"/>
       <c r="AI63" s="7">
-        <v>922942.0</v>
+        <v>972389.0</v>
       </c>
       <c r="AJ63" s="1">
-        <v>7405308.0</v>
+        <v>7832999.0</v>
       </c>
       <c r="AK63" s="2"/>
       <c r="AL63" s="1">
-        <v>461471.0</v>
+        <v>591630.0</v>
       </c>
       <c r="AM63" s="1">
-        <v>2307355.0</v>
+        <v>2958150.0</v>
       </c>
       <c r="AN63" s="1">
         <v>0</v>
@@ -36246,15 +36158,17 @@
         <v>74</v>
       </c>
       <c r="C64" s="5">
-        <v>493774.0</v>
+        <v>633044.0</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="6"/>
       <c r="F64" s="2"/>
       <c r="G64" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H64" s="2"/>
+        <v>226360.0</v>
+      </c>
+      <c r="H64" s="2">
+        <v>0</v>
+      </c>
       <c r="I64" s="1"/>
       <c r="J64" s="2"/>
       <c r="K64" s="1"/>
@@ -36292,17 +36206,17 @@
       <c r="AG64" s="2"/>
       <c r="AH64" s="2"/>
       <c r="AI64" s="7">
-        <v>987548.0</v>
+        <v>1039728.0</v>
       </c>
       <c r="AJ64" s="1">
-        <v>8392856.0</v>
+        <v>8872727.0</v>
       </c>
       <c r="AK64" s="2"/>
       <c r="AL64" s="1">
-        <v>493774.0</v>
+        <v>633044.0</v>
       </c>
       <c r="AM64" s="1">
-        <v>2468870.0</v>
+        <v>3165220.0</v>
       </c>
       <c r="AN64" s="1">
         <v>0</v>
@@ -36321,15 +36235,17 @@
         <v>75</v>
       </c>
       <c r="C65" s="5">
-        <v>528338.0</v>
+        <v>677357.0</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="6"/>
       <c r="F65" s="2"/>
       <c r="G65" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H65" s="2"/>
+        <v>243640.0</v>
+      </c>
+      <c r="H65" s="2">
+        <v>0</v>
+      </c>
       <c r="I65" s="1"/>
       <c r="J65" s="2"/>
       <c r="K65" s="1"/>
@@ -36367,17 +36283,17 @@
       <c r="AG65" s="2"/>
       <c r="AH65" s="2"/>
       <c r="AI65" s="7">
-        <v>1056676.0</v>
+        <v>1111074.0</v>
       </c>
       <c r="AJ65" s="1">
-        <v>9449532.0</v>
+        <v>9983801.0</v>
       </c>
       <c r="AK65" s="2"/>
       <c r="AL65" s="1">
-        <v>528338.0</v>
+        <v>677357.0</v>
       </c>
       <c r="AM65" s="1">
-        <v>2641690.0</v>
+        <v>3386785.0</v>
       </c>
       <c r="AN65" s="1">
         <v>0</v>
@@ -36396,15 +36312,17 @@
         <v>76</v>
       </c>
       <c r="C66" s="5">
-        <v>565322.0</v>
+        <v>724772.0</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="6"/>
       <c r="F66" s="2"/>
       <c r="G66" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H66" s="2"/>
+        <v>265924.0</v>
+      </c>
+      <c r="H66" s="2">
+        <v>0</v>
+      </c>
       <c r="I66" s="1"/>
       <c r="J66" s="2"/>
       <c r="K66" s="1"/>
@@ -36442,17 +36360,17 @@
       <c r="AG66" s="2"/>
       <c r="AH66" s="2"/>
       <c r="AI66" s="7">
-        <v>1130644.0</v>
+        <v>1183620.0</v>
       </c>
       <c r="AJ66" s="1">
-        <v>10580176.0</v>
+        <v>11167421.0</v>
       </c>
       <c r="AK66" s="2"/>
       <c r="AL66" s="1">
-        <v>565322.0</v>
+        <v>724772.0</v>
       </c>
       <c r="AM66" s="1">
-        <v>2826610.0</v>
+        <v>3623860.0</v>
       </c>
       <c r="AN66" s="1">
         <v>0</v>
@@ -36471,15 +36389,17 @@
         <v>77</v>
       </c>
       <c r="C67" s="5">
-        <v>604895.0</v>
+        <v>775506.0</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="6"/>
       <c r="F67" s="2"/>
       <c r="G67" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H67" s="2"/>
+        <v>289769.0</v>
+      </c>
+      <c r="H67" s="2">
+        <v>0</v>
+      </c>
       <c r="I67" s="1"/>
       <c r="J67" s="2"/>
       <c r="K67" s="1"/>
@@ -36517,17 +36437,17 @@
       <c r="AG67" s="2"/>
       <c r="AH67" s="2"/>
       <c r="AI67" s="7">
-        <v>1209790.0</v>
+        <v>1261243.0</v>
       </c>
       <c r="AJ67" s="1">
-        <v>11789966.0</v>
+        <v>12428664.0</v>
       </c>
       <c r="AK67" s="2"/>
       <c r="AL67" s="1">
-        <v>604895.0</v>
+        <v>775506.0</v>
       </c>
       <c r="AM67" s="1">
-        <v>3024475.0</v>
+        <v>3877530.0</v>
       </c>
       <c r="AN67" s="1">
         <v>0</v>
@@ -36546,15 +36466,17 @@
         <v>78</v>
       </c>
       <c r="C68" s="5">
-        <v>647238.0</v>
+        <v>829792.0</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="6"/>
       <c r="F68" s="2"/>
       <c r="G68" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H68" s="2"/>
+        <v>315283.0</v>
+      </c>
+      <c r="H68" s="2">
+        <v>0</v>
+      </c>
       <c r="I68" s="1"/>
       <c r="J68" s="2"/>
       <c r="K68" s="1"/>
@@ -36592,17 +36514,17 @@
       <c r="AG68" s="2"/>
       <c r="AH68" s="2"/>
       <c r="AI68" s="7">
-        <v>1294476.0</v>
+        <v>1344301.0</v>
       </c>
       <c r="AJ68" s="1">
-        <v>13084442.0</v>
+        <v>13772965.0</v>
       </c>
       <c r="AK68" s="2"/>
       <c r="AL68" s="1">
-        <v>647238.0</v>
+        <v>829792.0</v>
       </c>
       <c r="AM68" s="1">
-        <v>3236190.0</v>
+        <v>4148960.0</v>
       </c>
       <c r="AN68" s="1">
         <v>0</v>
@@ -36621,15 +36543,17 @@
         <v>79</v>
       </c>
       <c r="C69" s="5">
-        <v>692544.0</v>
+        <v>887877.0</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="6"/>
       <c r="F69" s="2"/>
       <c r="G69" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H69" s="2"/>
+        <v>342583.0</v>
+      </c>
+      <c r="H69" s="2">
+        <v>0</v>
+      </c>
       <c r="I69" s="1"/>
       <c r="J69" s="2"/>
       <c r="K69" s="1"/>
@@ -36667,17 +36591,17 @@
       <c r="AG69" s="2"/>
       <c r="AH69" s="2"/>
       <c r="AI69" s="7">
-        <v>1385088.0</v>
+        <v>1433171.0</v>
       </c>
       <c r="AJ69" s="1">
-        <v>14469530.0</v>
+        <v>15206136.0</v>
       </c>
       <c r="AK69" s="2"/>
       <c r="AL69" s="1">
-        <v>692544.0</v>
+        <v>887877.0</v>
       </c>
       <c r="AM69" s="1">
-        <v>3462720.0</v>
+        <v>4439385.0</v>
       </c>
       <c r="AN69" s="1">
         <v>0</v>
@@ -36696,15 +36620,17 @@
         <v>80</v>
       </c>
       <c r="C70" s="5">
-        <v>741022.0</v>
+        <v>950028.0</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="6"/>
       <c r="F70" s="2"/>
       <c r="G70" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H70" s="2"/>
+        <v>372157.0</v>
+      </c>
+      <c r="H70" s="2">
+        <v>0</v>
+      </c>
       <c r="I70" s="1"/>
       <c r="J70" s="2"/>
       <c r="K70" s="1"/>
@@ -36742,17 +36668,17 @@
       <c r="AG70" s="2"/>
       <c r="AH70" s="2"/>
       <c r="AI70" s="7">
-        <v>1482044.0</v>
+        <v>1527899.0</v>
       </c>
       <c r="AJ70" s="1">
-        <v>15951574.0</v>
+        <v>16734035.0</v>
       </c>
       <c r="AK70" s="2"/>
       <c r="AL70" s="1">
-        <v>741022.0</v>
+        <v>950028.0</v>
       </c>
       <c r="AM70" s="1">
-        <v>3705110.0</v>
+        <v>4750140.0</v>
       </c>
       <c r="AN70" s="1">
         <v>0</v>
@@ -36771,15 +36697,17 @@
         <v>81</v>
       </c>
       <c r="C71" s="5">
-        <v>792894.0</v>
+        <v>1016531.0</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="6"/>
       <c r="F71" s="2"/>
       <c r="G71" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H71" s="2"/>
+        <v>405410.0</v>
+      </c>
+      <c r="H71" s="2">
+        <v>0</v>
+      </c>
       <c r="I71" s="1"/>
       <c r="J71" s="2"/>
       <c r="K71" s="1"/>
@@ -36817,17 +36745,17 @@
       <c r="AG71" s="2"/>
       <c r="AH71" s="2"/>
       <c r="AI71" s="7">
-        <v>1585788.0</v>
+        <v>1627652.0</v>
       </c>
       <c r="AJ71" s="1">
-        <v>17537362.0</v>
+        <v>18361687.0</v>
       </c>
       <c r="AK71" s="2"/>
       <c r="AL71" s="1">
-        <v>792894.0</v>
+        <v>1016531.0</v>
       </c>
       <c r="AM71" s="1">
-        <v>3964470.0</v>
+        <v>5082655.0</v>
       </c>
       <c r="AN71" s="1">
         <v>0</v>
@@ -36846,15 +36774,17 @@
         <v>82</v>
       </c>
       <c r="C72" s="6">
-        <v>848396.0</v>
+        <v>1087687.0</v>
       </c>
       <c r="D72" s="20"/>
       <c r="E72" s="6"/>
       <c r="F72" s="20"/>
       <c r="G72" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="H72" s="20"/>
+        <v>440987.0</v>
+      </c>
+      <c r="H72" s="20">
+        <v>0</v>
+      </c>
       <c r="I72" s="6"/>
       <c r="J72" s="20"/>
       <c r="K72" s="6"/>
@@ -36892,17 +36822,17 @@
       <c r="AG72" s="20"/>
       <c r="AH72" s="20"/>
       <c r="AI72" s="6">
-        <v>1696792.0</v>
+        <v>1734387.0</v>
       </c>
       <c r="AJ72" s="6">
-        <v>19234154.0</v>
+        <v>20096074.0</v>
       </c>
       <c r="AK72" s="20"/>
       <c r="AL72" s="6">
-        <v>848396.0</v>
+        <v>1087687.0</v>
       </c>
       <c r="AM72" s="6">
-        <v>4241980.0</v>
+        <v>5438435.0</v>
       </c>
       <c r="AN72" s="6">
         <v>0</v>
